--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_709.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_709.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32607-d678407-Reviews-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-SpringHill-Suites-By-Marriott-Lancaster.h1778185.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_709.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_709.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1477 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r535787351-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>32607</t>
+  </si>
+  <si>
+    <t>678407</t>
+  </si>
+  <si>
+    <t>535787351</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Just for 1 night</t>
+  </si>
+  <si>
+    <t>Arrived late all staff very polite and professional, perfect location to get back on the freeway. Hugh room usual Spring Hill specification super clean and tidy. There are food and drink options nearby.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r521227081-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>521227081</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>Family Reunion</t>
+  </si>
+  <si>
+    <t>The staff was very accommodating for our large group of adults and children!   We spent the day at the pool and for our evening meal we ordered take out and the staff provided us with the dining room used for breakfast!  Our rooms were excellent and all in the same area!  Special thanks to IIONA for her help in making our reunion even more special!  Would recommend this hotel.  Very clean with nice rooms!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r518105305-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>518105305</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>I slept well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had to stay here for business and it was good. Easy access on and off the free way. Walls were thick enough to keep the room quiet. Breakfast is the typical fare and nothing special.  I'll be going there again. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r500474181-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>500474181</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Great Stopover and better value</t>
+  </si>
+  <si>
+    <t>We stayed here on a family trip from LA to Las Vegas. After a 11 hour flight we needed somewhere to rest. Check in was seamless. The room was big. Two big beds and a sofa bed. Kitchen with fridge and microwave. Great value as Wi-Fi, parking and breakfast was included. Bathroom was big and clean. Found a cockroach in the bathtub. Could happen anywhere and don't forget we are in the dessert. And it was 110 degrees outside.Good breakfast buffet which is included in the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here on a family trip from LA to Las Vegas. After a 11 hour flight we needed somewhere to rest. Check in was seamless. The room was big. Two big beds and a sofa bed. Kitchen with fridge and microwave. Great value as Wi-Fi, parking and breakfast was included. Bathroom was big and clean. Found a cockroach in the bathtub. Could happen anywhere and don't forget we are in the dessert. And it was 110 degrees outside.Good breakfast buffet which is included in the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r494681811-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>494681811</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Clean, updated hotel at a very reasonable price</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here mid-June 2017.  The staff were great, the room was clean and up to date, and the bed was very comfortable.  What more could you ask for.  We didn't get a chance to try the breakfast as we were visiting family that wanted us to eat with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here mid-June 2017.  The staff were great, the room was clean and up to date, and the bed was very comfortable.  What more could you ask for.  We didn't get a chance to try the breakfast as we were visiting family that wanted us to eat with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r493087003-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>493087003</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Just Refurbished</t>
+  </si>
+  <si>
+    <t>This hotel has just been updated with new paint and carpet.  I always stay in Marriott hotels but never have stayed in a SpringHill Suites.  They have a very good continental breakfast and the staff was great.  SpringHill Suites is now on my list of hotels to stay in.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel has just been updated with new paint and carpet.  I always stay in Marriott hotels but never have stayed in a SpringHill Suites.  They have a very good continental breakfast and the staff was great.  SpringHill Suites is now on my list of hotels to stay in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r485387664-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>485387664</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Very good hotel...but whats up with the lobby remodel???</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and been pleased each time.   The rooms are excellent..very clean and well laid out.   Lots of parking.  Helpful friendly staff.   The only thing I just don't get is the style of the remodel of the breakfast area...very edgy in color and design.    I saw no need for it...a waste of money in my opinion but it won't make me find another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I have stayed here many times and been pleased each time.   The rooms are excellent..very clean and well laid out.   Lots of parking.  Helpful friendly staff.   The only thing I just don't get is the style of the remodel of the breakfast area...very edgy in color and design.    I saw no need for it...a waste of money in my opinion but it won't make me find another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r482794192-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>482794192</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Nice find!</t>
+  </si>
+  <si>
+    <t>This is a very good hotel.  Very nice rooms, wonderful beds, and not the usual room design you find everywhere else. Very nice breakfast. Close to Freeway but you don't hear the noise at all. A/C units are very quiet. Definitely will stay there again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>This is a very good hotel.  Very nice rooms, wonderful beds, and not the usual room design you find everywhere else. Very nice breakfast. Close to Freeway but you don't hear the noise at all. A/C units are very quiet. Definitely will stay there again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r474298936-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>474298936</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Lovely place to stay in Lancaster</t>
+  </si>
+  <si>
+    <t>Had a great experience from beginning to end. Stayed here for one night for work.  Staff was friendly and helpful.  The suite was very nice, and clean.  The bead was also to both of our liking.   We had some issues with the Wifi at first  but they put us in touch with tech support right away and they solved our problem. It was 11 pm and it took less than 10 minutes to solve the issue.   Breakfast was adequate for a Marriott.  They Honored the late check out until 4pm for a gold member.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Had a great experience from beginning to end. Stayed here for one night for work.  Staff was friendly and helpful.  The suite was very nice, and clean.  The bead was also to both of our liking.   We had some issues with the Wifi at first  but they put us in touch with tech support right away and they solved our problem. It was 11 pm and it took less than 10 minutes to solve the issue.   Breakfast was adequate for a Marriott.  They Honored the late check out until 4pm for a gold member.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r473481057-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>473481057</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Soft bed after a long ride</t>
+  </si>
+  <si>
+    <t>We stayed at SpringHill for its location- right next to the Lancaster Harley Davidson.  After riding for 7 hours SpringHill welcomed us with a newly renovated room, clean and soft bedding and towels, new carpet throughout and a wonderful breakfast in the morning. Room was quiet and comfortable. Staff was very friendly and I would definitely stay again and recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at SpringHill for its location- right next to the Lancaster Harley Davidson.  After riding for 7 hours SpringHill welcomed us with a newly renovated room, clean and soft bedding and towels, new carpet throughout and a wonderful breakfast in the morning. Room was quiet and comfortable. Staff was very friendly and I would definitely stay again and recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r473074577-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>473074577</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>SpringHill Suites</t>
+  </si>
+  <si>
+    <t>Nice newer clean hotel.  Good place to stay to go see the Poppy Field.  Good free breakfast choices.  Free newspapers.  Large screen TV, large couch and desk.  Not a huge room but adequate.  Near shopping and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice newer clean hotel.  Good place to stay to go see the Poppy Field.  Good free breakfast choices.  Free newspapers.  Large screen TV, large couch and desk.  Not a huge room but adequate.  Near shopping and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r470721167-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>470721167</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Sweet Rooms</t>
+  </si>
+  <si>
+    <t>Really nice hotel! The elevator is slow as all forever. Not too far from the 14, and tucked into a quiet area. Wifi is decent but not fast. Rooms are well fitted and the ac works really well. Ample parking and would def stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Really nice hotel! The elevator is slow as all forever. Not too far from the 14, and tucked into a quiet area. Wifi is decent but not fast. Rooms are well fitted and the ac works really well. Ample parking and would def stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r459017428-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>459017428</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay!</t>
+  </si>
+  <si>
+    <t>Even though they were updating many of the public areas, we were never inconvenienced. The staff were very friendly and the hotel is very clean. The towels were just so plush! These were really NICE towels....not what I expected at a SpringHill Suites....maybe at a Renaissance. Only downside was the air conditioner. The room either was stuffy or too cold. So ended up running the air for a while to cool down the room, then turning it off for a while.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Even though they were updating many of the public areas, we were never inconvenienced. The staff were very friendly and the hotel is very clean. The towels were just so plush! These were really NICE towels....not what I expected at a SpringHill Suites....maybe at a Renaissance. Only downside was the air conditioner. The room either was stuffy or too cold. So ended up running the air for a while to cool down the room, then turning it off for a while.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r458960432-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>458960432</t>
+  </si>
+  <si>
+    <t>Great service by Stacy</t>
+  </si>
+  <si>
+    <t>Family getaway for a soccer tournament and our stay was great. Rooms are beautiful and service was fantastic. Got extra towels, and the staff was very pleasant. Rooms were clean and quiet, location was convenientMoreShow less</t>
+  </si>
+  <si>
+    <t>Family getaway for a soccer tournament and our stay was great. Rooms are beautiful and service was fantastic. Got extra towels, and the staff was very pleasant. Rooms were clean and quiet, location was convenientMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r458288348-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>458288348</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Judy was great!</t>
+  </si>
+  <si>
+    <t>The service was great.  Nice place to stay.  Clean.  Breakfast was good.  Lot's of families in for State Cup and they managed it all very well. The staff was very friendly and engaging. I would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The service was great.  Nice place to stay.  Clean.  Breakfast was good.  Lot's of families in for State Cup and they managed it all very well. The staff was very friendly and engaging. I would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r439328265-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>439328265</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Multiple Stays - Great Service / Good Breakfast</t>
+  </si>
+  <si>
+    <t>I've stayed at the hotel on two occasions in the last two weeks for business.  I can't say enough about the staff.  The manager Judy came to my rescue on my first stay by helping me print and organize several documents for a morning meeting.  She even loaned me her stapler and gave me paperclips to help out.  She was a life-saver.  The breakfast options were also great and saved me from having to pick up food and coffee on the way to my meeting.   My second stay was the same.  Great service from Judy, nice breakfast, comfortable bed.  I will be using this hotel going forward when I have meetings in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>I've stayed at the hotel on two occasions in the last two weeks for business.  I can't say enough about the staff.  The manager Judy came to my rescue on my first stay by helping me print and organize several documents for a morning meeting.  She even loaned me her stapler and gave me paperclips to help out.  She was a life-saver.  The breakfast options were also great and saved me from having to pick up food and coffee on the way to my meeting.   My second stay was the same.  Great service from Judy, nice breakfast, comfortable bed.  I will be using this hotel going forward when I have meetings in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r433084927-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>433084927</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Cockroaches</t>
+  </si>
+  <si>
+    <t>In a relatively new hotel, no less!There was one in the bathroom. Killed it.There was another one in the kitchen area. Killed that one too.Disgusting. It happened the morning of checkout, so I got out of there FAST.Clearly the cleaning staff is on the lazy side!To date I only had cockroaches in outdated and neglected Holiday Inns.....I am NOT coming back to this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>In a relatively new hotel, no less!There was one in the bathroom. Killed it.There was another one in the kitchen area. Killed that one too.Disgusting. It happened the morning of checkout, so I got out of there FAST.Clearly the cleaning staff is on the lazy side!To date I only had cockroaches in outdated and neglected Holiday Inns.....I am NOT coming back to this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r433035128-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>433035128</t>
+  </si>
+  <si>
+    <t>Nice one night stay.</t>
+  </si>
+  <si>
+    <t>Our first hotel of our big USA road trip - didn't get much sleep as I was majorly jet lagged,  but the rest of the family did! Staff were friendly. At first we were disappointed with the breakfast - the croissants weren't fresh. However, the breakfast was by far the best compared to the other hotels we stayed in during our holiday in the US - it was the only one that served ham and cheese and different type of watermelon, for example.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our first hotel of our big USA road trip - didn't get much sleep as I was majorly jet lagged,  but the rest of the family did! Staff were friendly. At first we were disappointed with the breakfast - the croissants weren't fresh. However, the breakfast was by far the best compared to the other hotels we stayed in during our holiday in the US - it was the only one that served ham and cheese and different type of watermelon, for example.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r425113666-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>425113666</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>The room was very clean, quiet, modern, and comfortable.  The breakfast buffet was very good and offered hot items as well as protein.  We could walk to a restaurant nearby  for a good dinner.  It was one of the best stays on our trip an  the price was in our range.  The room space was divided into sections so you felt like you were in a small apartment.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded October 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2016</t>
+  </si>
+  <si>
+    <t>The room was very clean, quiet, modern, and comfortable.  The breakfast buffet was very good and offered hot items as well as protein.  We could walk to a restaurant nearby  for a good dinner.  It was one of the best stays on our trip an  the price was in our range.  The room space was divided into sections so you felt like you were in a small apartment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r420903391-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>420903391</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Sixteen days on a motorcycle trip and this was the best of them all. This is a modern updated hotel with all of the best. It has a sitting room with a little bar area etc. The morning breakfast is one of the best. Very nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Sixteen days on a motorcycle trip and this was the best of them all. This is a modern updated hotel with all of the best. It has a sitting room with a little bar area etc. The morning breakfast is one of the best. Very nice place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r419964396-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>419964396</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One night stay </t>
+  </si>
+  <si>
+    <t>We stayed here one night on a State Rally. Right next to Harley Dealership and freeway. Room was very nice and roomy. The bed was comfortable. Staff was friendly. Free breakfast was nice. Would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded September 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here one night on a State Rally. Right next to Harley Dealership and freeway. Room was very nice and roomy. The bed was comfortable. Staff was friendly. Free breakfast was nice. Would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r398656224-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>398656224</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Thin walls and average amenities.</t>
+  </si>
+  <si>
+    <t>Nothing to rave about here - it's just good enough I guess.  Carpet and bathrooms are nice.  Staff was friendly.  Rooms seemed a bit small and dark to me.The one thing that stood out was that every night I could hear conversations going on in the room to my right and the room to my left.I also left a note that the iron was broken.  While they picked up the broken iron, they never replaced it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Nothing to rave about here - it's just good enough I guess.  Carpet and bathrooms are nice.  Staff was friendly.  Rooms seemed a bit small and dark to me.The one thing that stood out was that every night I could hear conversations going on in the room to my right and the room to my left.I also left a note that the iron was broken.  While they picked up the broken iron, they never replaced it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r387187572-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>387187572</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Having Marriott Rewards (card, not just rewards program) makes no difference at this hotel. Hypoallergenic pillows were requested months prior and when we arrived the room had almost exclusively feather pillows (apparently even more than all rooms are supposed to). When we requested they be removed and replaced with a few hypoallergenic pillows, the front desk staff advised they didn't have any more. We complained again the next day but there was apparently only one employee working at that time - she had to go into empty rooms to get us the correct pillows. While the hotel overall was pleasant, quiet and clean, this room needed some work (had what we hoped was ketchup splattered on the ceiling). Given the price we were able to get, we'd stay again but will call before we arrive to ensure our allergy requests are met. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Having Marriott Rewards (card, not just rewards program) makes no difference at this hotel. Hypoallergenic pillows were requested months prior and when we arrived the room had almost exclusively feather pillows (apparently even more than all rooms are supposed to). When we requested they be removed and replaced with a few hypoallergenic pillows, the front desk staff advised they didn't have any more. We complained again the next day but there was apparently only one employee working at that time - she had to go into empty rooms to get us the correct pillows. While the hotel overall was pleasant, quiet and clean, this room needed some work (had what we hoped was ketchup splattered on the ceiling). Given the price we were able to get, we'd stay again but will call before we arrive to ensure our allergy requests are met. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r379477128-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>379477128</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>We like to stop in Lancaster for a night on our drives from San Jose to Las Vegas.  It breaks up the driving days nicely.  Room was very clean and bed comfortable.  Breakfast in Springhills is always satisfactory.  Ask for a room away from the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We like to stop in Lancaster for a night on our drives from San Jose to Las Vegas.  It breaks up the driving days nicely.  Room was very clean and bed comfortable.  Breakfast in Springhills is always satisfactory.  Ask for a room away from the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r376281240-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>376281240</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Affordable and Clean</t>
+  </si>
+  <si>
+    <t>Springhill Suites Lancaster Palmdale is located in a convenient location.  The staff was friendly and courteous.  The room was clean and spacious.  I only had two problems, I could clearly hear my neighbor sneezing next door and the vanity light bulb never came completely on.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Springhill Suites Lancaster Palmdale is located in a convenient location.  The staff was friendly and courteous.  The room was clean and spacious.  I only had two problems, I could clearly hear my neighbor sneezing next door and the vanity light bulb never came completely on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r375954263-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>375954263</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Great Place to stay!</t>
+  </si>
+  <si>
+    <t>This was a great place at a very reasonable rate. It is next door to a Harley Shop so during the day we did have to hear the "Hogs". Husband has several Harley's so it wasn't anything we weren't use to, but it was fine after the shop closed at 6. Used the mobile check-in so it took like one minute to pick up the keys &amp; get directions to our room. It was centrally located so getting to all the functions we had in town was easy. Will stay here again when we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a great place at a very reasonable rate. It is next door to a Harley Shop so during the day we did have to hear the "Hogs". Husband has several Harley's so it wasn't anything we weren't use to, but it was fine after the shop closed at 6. Used the mobile check-in so it took like one minute to pick up the keys &amp; get directions to our room. It was centrally located so getting to all the functions we had in town was easy. Will stay here again when we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r375939140-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>375939140</t>
+  </si>
+  <si>
+    <t>well rested</t>
+  </si>
+  <si>
+    <t>Springhiil Suites in Lancaster is our hotel of choice when visiting family. The rooms are room with a sitting area. The beds are great, good night sleep. Good breakfast with something for everyone. Friendly staff. Judy was fantastic.MoreShow less</t>
+  </si>
+  <si>
+    <t>Springhiil Suites in Lancaster is our hotel of choice when visiting family. The rooms are room with a sitting area. The beds are great, good night sleep. Good breakfast with something for everyone. Friendly staff. Judy was fantastic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r366336096-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>366336096</t>
+  </si>
+  <si>
+    <t>04/22/2016</t>
+  </si>
+  <si>
+    <t>Noisy!</t>
+  </si>
+  <si>
+    <t>I chose to stay at this property based on the fact that it's right next to the highway and it's not that far from Rosamond.  Check-in was pretty easy and the lady at reception was very friendly and efficient.  The room was pretty clean.However, noise was an issue and it wasn't coming from the highway.  I was able to hear the guy next to my room.  He was on the phone and I honestly think he was talking to his secretary or something.  Next was when the water was running in his room.  When he ran the shower, the noise coming from the water pipes was so loud it woke me up at 5am!  The last thing was equally as bad.  My room faced the Harley showroom and I could hear motorcycles early morning on both days of my stay.  Could you imagine how well I slept on those three nights?MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I chose to stay at this property based on the fact that it's right next to the highway and it's not that far from Rosamond.  Check-in was pretty easy and the lady at reception was very friendly and efficient.  The room was pretty clean.However, noise was an issue and it wasn't coming from the highway.  I was able to hear the guy next to my room.  He was on the phone and I honestly think he was talking to his secretary or something.  Next was when the water was running in his room.  When he ran the shower, the noise coming from the water pipes was so loud it woke me up at 5am!  The last thing was equally as bad.  My room faced the Harley showroom and I could hear motorcycles early morning on both days of my stay.  Could you imagine how well I slept on those three nights?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r361192911-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>361192911</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>Excellent choice: clean, quiet and convenient</t>
+  </si>
+  <si>
+    <t>This was our first stay in a SpringHill Suites property.  The room was clean, spacious,  quiet and had a comfortable couch and sitting chair in addition to a comfortable desk seat and a second sink with counter space.  There was a full, hot breakfast with scrambled eggs, sliced cheese and lunch meats, yogurt, fruit and all the usual cereal/toast/muffin choices.  There was a comfortable, spacious breakfast area, a gym, pool and spa.  Great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our first stay in a SpringHill Suites property.  The room was clean, spacious,  quiet and had a comfortable couch and sitting chair in addition to a comfortable desk seat and a second sink with counter space.  There was a full, hot breakfast with scrambled eggs, sliced cheese and lunch meats, yogurt, fruit and all the usual cereal/toast/muffin choices.  There was a comfortable, spacious breakfast area, a gym, pool and spa.  Great value!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r355163859-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>355163859</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Convenient location; great services</t>
+  </si>
+  <si>
+    <t>After a long drive, we arrived at the hotel.  It was very easy to find and check in was extremely fast (I had downloaded the Marriott app and had already checked in).  Room was nice and clean; the bed was comfortable and a full complimentary breakfast was available in the morning.  Check out equally fast using the mobil app.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>After a long drive, we arrived at the hotel.  It was very easy to find and check in was extremely fast (I had downloaded the Marriott app and had already checked in).  Room was nice and clean; the bed was comfortable and a full complimentary breakfast was available in the morning.  Check out equally fast using the mobil app.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r346735597-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>346735597</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!!</t>
+  </si>
+  <si>
+    <t>We visited the hotel during a soccer tournament weekend, the "State Cup".  We couldn't find a reservation for our girls team and parents at any local restaurants, so we worked with the staff and they worked with us to find space for a local restaurant to cater in dinner, and for us to have their business room for the girls.  The team there, from the front office staff I originally worked with, to the team that worked the evening of January 23rd, were beyond exceptional.  Our girls team even shared their "build your own trail mix" bags with them - given how lovely everyone was.  We appreciated the flexibility and openness, the front desk supervisors help, and the evening staff support ... and when we made sure to have our girls clean up and such, the team was great in supporting us.  We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>We visited the hotel during a soccer tournament weekend, the "State Cup".  We couldn't find a reservation for our girls team and parents at any local restaurants, so we worked with the staff and they worked with us to find space for a local restaurant to cater in dinner, and for us to have their business room for the girls.  The team there, from the front office staff I originally worked with, to the team that worked the evening of January 23rd, were beyond exceptional.  Our girls team even shared their "build your own trail mix" bags with them - given how lovely everyone was.  We appreciated the flexibility and openness, the front desk supervisors help, and the evening staff support ... and when we made sure to have our girls clean up and such, the team was great in supporting us.  We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r343203122-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>343203122</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Warm and Welcoming...</t>
+  </si>
+  <si>
+    <t>The Springhill Suites in Lancaster, CA, is an absolute gem! 
+Upon arrival, I was properly greeted by the front desk clerk and my room was ready (even earlier than the normal check in time). She even suggested a few favorite restaurants in the area and her favorite spot definitely met my needs. 
+The room was super clean and the housekeeping staff was delightful and super quick too.
+The next morning, I had a delicious breakfast with great food options. I met another front desk clerk but unfortunately I have forgotten her name but she is who made my entire experience so ENJOYABLE and if I've ever in the area again - I will definitely stay at this hotel. She was so personable and friendly and full of life!  Not to mention, she was super busy but didn't miss a beat as the phones were ringing  off the hook. Even though, I still felt as if I was the only person standing there but everything was under complete control. I also met her counterpart, Jason - and he was very nice also.
+We actually had a whole discussion about the difficulty I experienced trying to find the hotel location because of my GPS - we figured out if you leave out West - the hotel address will populate into the Garmin GPS systems. Now that I know how to locate the hotel, I'll be certain to make another visit in the...The Springhill Suites in Lancaster, CA, is an absolute gem! Upon arrival, I was properly greeted by the front desk clerk and my room was ready (even earlier than the normal check in time). She even suggested a few favorite restaurants in the area and her favorite spot definitely met my needs. The room was super clean and the housekeeping staff was delightful and super quick too.The next morning, I had a delicious breakfast with great food options. I met another front desk clerk but unfortunately I have forgotten her name but she is who made my entire experience so ENJOYABLE and if I've ever in the area again - I will definitely stay at this hotel. She was so personable and friendly and full of life!  Not to mention, she was super busy but didn't miss a beat as the phones were ringing  off the hook. Even though, I still felt as if I was the only person standing there but everything was under complete control. I also met her counterpart, Jason - and he was very nice also.We actually had a whole discussion about the difficulty I experienced trying to find the hotel location because of my GPS - we figured out if you leave out West - the hotel address will populate into the Garmin GPS systems. Now that I know how to locate the hotel, I'll be certain to make another visit in the very near future.If you are reading this review, I suggest you do the same. I'm quite sure you will be just as happy. Very great stay and looking forward to the next visit. Take care.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Springhill Suites in Lancaster, CA, is an absolute gem! 
+Upon arrival, I was properly greeted by the front desk clerk and my room was ready (even earlier than the normal check in time). She even suggested a few favorite restaurants in the area and her favorite spot definitely met my needs. 
+The room was super clean and the housekeeping staff was delightful and super quick too.
+The next morning, I had a delicious breakfast with great food options. I met another front desk clerk but unfortunately I have forgotten her name but she is who made my entire experience so ENJOYABLE and if I've ever in the area again - I will definitely stay at this hotel. She was so personable and friendly and full of life!  Not to mention, she was super busy but didn't miss a beat as the phones were ringing  off the hook. Even though, I still felt as if I was the only person standing there but everything was under complete control. I also met her counterpart, Jason - and he was very nice also.
+We actually had a whole discussion about the difficulty I experienced trying to find the hotel location because of my GPS - we figured out if you leave out West - the hotel address will populate into the Garmin GPS systems. Now that I know how to locate the hotel, I'll be certain to make another visit in the...The Springhill Suites in Lancaster, CA, is an absolute gem! Upon arrival, I was properly greeted by the front desk clerk and my room was ready (even earlier than the normal check in time). She even suggested a few favorite restaurants in the area and her favorite spot definitely met my needs. The room was super clean and the housekeeping staff was delightful and super quick too.The next morning, I had a delicious breakfast with great food options. I met another front desk clerk but unfortunately I have forgotten her name but she is who made my entire experience so ENJOYABLE and if I've ever in the area again - I will definitely stay at this hotel. She was so personable and friendly and full of life!  Not to mention, she was super busy but didn't miss a beat as the phones were ringing  off the hook. Even though, I still felt as if I was the only person standing there but everything was under complete control. I also met her counterpart, Jason - and he was very nice also.We actually had a whole discussion about the difficulty I experienced trying to find the hotel location because of my GPS - we figured out if you leave out West - the hotel address will populate into the Garmin GPS systems. Now that I know how to locate the hotel, I'll be certain to make another visit in the very near future.If you are reading this review, I suggest you do the same. I'm quite sure you will be just as happy. Very great stay and looking forward to the next visit. Take care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r340985375-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>340985375</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Nice place for a single evening.</t>
+  </si>
+  <si>
+    <t>I'm often here in association with a high-performance driving club that uses the Willow Springs International Raceway facilities. It's a super place, with a very courteous and friendly staff, who - despite rollovers - has gotten to recognize me and others in the club.  I'm happy with the room; everything is always in tip-top shape.   I've only had one time when the WiFi wasn't working (but was too tired at that point to care), and it was up the next morning.   I wish the pool and jacuzzi were bigger, and rear-facing rooms tend to get a bit more highway noise than desirable for a light sleeper like me.  But all-in-all this is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm often here in association with a high-performance driving club that uses the Willow Springs International Raceway facilities. It's a super place, with a very courteous and friendly staff, who - despite rollovers - has gotten to recognize me and others in the club.  I'm happy with the room; everything is always in tip-top shape.   I've only had one time when the WiFi wasn't working (but was too tired at that point to care), and it was up the next morning.   I wish the pool and jacuzzi were bigger, and rear-facing rooms tend to get a bit more highway noise than desirable for a light sleeper like me.  But all-in-all this is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r331610945-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>331610945</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Came along with my husband for a day (he was on a business trip in this area). Great staff, very accomodating. Great breakfast with hot/cold choices. Our room (2 queen beds) was huge, with a nice sitting area with couches and minibar. The room had mini fridge/microwave. Excellent size bathroom. Nice fluffy new towels. Overall - great experience. Nothing to complain about. Had a great night sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Came along with my husband for a day (he was on a business trip in this area). Great staff, very accomodating. Great breakfast with hot/cold choices. Our room (2 queen beds) was huge, with a nice sitting area with couches and minibar. The room had mini fridge/microwave. Excellent size bathroom. Nice fluffy new towels. Overall - great experience. Nothing to complain about. Had a great night sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r329750751-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>329750751</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Breaking up a trip from SoCal to Reno NV</t>
+  </si>
+  <si>
+    <t>Property is convenienent to freeway, and Costco gas...bed was TOO firm for us, otherwise, staff and property was clean and priced as a good value. Breakfast is very complete, with hot and cold options...though eight years old, the property looked, and felt newer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Property is convenienent to freeway, and Costco gas...bed was TOO firm for us, otherwise, staff and property was clean and priced as a good value. Breakfast is very complete, with hot and cold options...though eight years old, the property looked, and felt newer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r328278162-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>328278162</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Awesome staff.  Central location</t>
+  </si>
+  <si>
+    <t>I was so impressed with the staff here.  They all were so  helpful and friendly.  I had a number of issues with my room - they were quick to address them and even had a "sorry" note from one of the maintenance guys on my desk for the problems.  That was a class act.The room is a standard Springhill Suites.  Good desk to work on.  Bed was comfortable.  HVAC was a little weird.  You can't just have the fan "on" as it has to run with either the heat or A/C.  Breakfast was typical.You are centrally located to restaurants and plenty of supermarkets if you want to eat in your room.  Rooms have both refrigerators and microwaves with utensils provided.  The workout room was good with a few cardio options.  Wifi was strong and worked great.Definitely a place to stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I was so impressed with the staff here.  They all were so  helpful and friendly.  I had a number of issues with my room - they were quick to address them and even had a "sorry" note from one of the maintenance guys on my desk for the problems.  That was a class act.The room is a standard Springhill Suites.  Good desk to work on.  Bed was comfortable.  HVAC was a little weird.  You can't just have the fan "on" as it has to run with either the heat or A/C.  Breakfast was typical.You are centrally located to restaurants and plenty of supermarkets if you want to eat in your room.  Rooms have both refrigerators and microwaves with utensils provided.  The workout room was good with a few cardio options.  Wifi was strong and worked great.Definitely a place to stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r321947740-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>321947740</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Great Place for a Working Week!</t>
+  </si>
+  <si>
+    <t>I often stay here when traveling to the Lancaster/Palmdale area for work.  I typically arrive pretty late coming from the east coast so while it may be 9pm on the west coast, it's midnight to me! Melina is always there to greet this weary traveler with a warm smile and a quick check in! Rooms are clean and spacious and wifi signal is strong! MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>I often stay here when traveling to the Lancaster/Palmdale area for work.  I typically arrive pretty late coming from the east coast so while it may be 9pm on the west coast, it's midnight to me! Melina is always there to greet this weary traveler with a warm smile and a quick check in! Rooms are clean and spacious and wifi signal is strong! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r321138658-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>321138658</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Good night sleep and the amenities were nice. Rooms were clean and convenient for Edwards AFB. Didn't stick around for breakfast but it looked decent. Bananas were all green though. Shower was fine. Lots of parking and conveniently located for dining and fuel. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Good night sleep and the amenities were nice. Rooms were clean and convenient for Edwards AFB. Didn't stick around for breakfast but it looked decent. Bananas were all green though. Shower was fine. Lots of parking and conveniently located for dining and fuel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r321047586-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>321047586</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Another pleasant stay</t>
+  </si>
+  <si>
+    <t>Whenever I'm working in Lancaster, I stay at the Springhill suites The staff is always courteous and the rooms are always clean. I'm never sure if I'm going to have to stay until the end of the day. So when I call last minute it is refreshing to deal with a polite and helpful rep. Milina remembered me from my last stay and had me checked in in no time at all. (She rocks!) The A/C is on when I walk in the room during the summer and the showers are hot with good pressure during the winters. Great place to stay when in the Lancaster/Palmdale area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Whenever I'm working in Lancaster, I stay at the Springhill suites The staff is always courteous and the rooms are always clean. I'm never sure if I'm going to have to stay until the end of the day. So when I call last minute it is refreshing to deal with a polite and helpful rep. Milina remembered me from my last stay and had me checked in in no time at all. (She rocks!) The A/C is on when I walk in the room during the summer and the showers are hot with good pressure during the winters. Great place to stay when in the Lancaster/Palmdale area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r320232354-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>320232354</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Very comfortable room. Great people. I travel to this area monthly and I wouldn't consider staying anywhere else. Malina and all of the front desk staff are extremely friendly and professional - quick to answer any questions or recommend a great place to eat. They greet me by name when I come in - like family.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very comfortable room. Great people. I travel to this area monthly and I wouldn't consider staying anywhere else. Malina and all of the front desk staff are extremely friendly and professional - quick to answer any questions or recommend a great place to eat. They greet me by name when I come in - like family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r313128054-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>313128054</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Decent all Suites hotel in good location</t>
+  </si>
+  <si>
+    <t>The hotel is exactly what you can expect from the chain. Decent all suites (albeit small) hotel with free breakfast and WiFi. If ever in the area again will gladly stay again.The hotel is conveniently located close to the major highways in town as well as to shopping and dining areas. There is free parking on the premises. You cannot go far in Lancaster without a car, although if push comes to shove there are some eateries and shopping establishment in (almost) walking distance. The only down side is that the hotel back faces a Harley Davidson shop and the bikers seems to congregate there early in the morning.Service was good, although as a lower rank Marriott it was really limited to the front desk. Although every time I’ve approached the desk it seems to be deserted, someone always appeared to take care of the customers. Breakfast was a standard affairs with hot and cold items, juices (from a box), fruits and yogurts. Nothing special there, though for what it was the quality was good.The room was decent with two compartment (the “living room” and the “bed room”) although all in all on the small side for an all-suites hotel. It felt less roomy from other in the same category. But the bed was good, WiFi was strong and fast and the shower although a little strangely shaped was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded October 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is exactly what you can expect from the chain. Decent all suites (albeit small) hotel with free breakfast and WiFi. If ever in the area again will gladly stay again.The hotel is conveniently located close to the major highways in town as well as to shopping and dining areas. There is free parking on the premises. You cannot go far in Lancaster without a car, although if push comes to shove there are some eateries and shopping establishment in (almost) walking distance. The only down side is that the hotel back faces a Harley Davidson shop and the bikers seems to congregate there early in the morning.Service was good, although as a lower rank Marriott it was really limited to the front desk. Although every time I’ve approached the desk it seems to be deserted, someone always appeared to take care of the customers. Breakfast was a standard affairs with hot and cold items, juices (from a box), fruits and yogurts. Nothing special there, though for what it was the quality was good.The room was decent with two compartment (the “living room” and the “bed room”) although all in all on the small side for an all-suites hotel. It felt less roomy from other in the same category. But the bed was good, WiFi was strong and fast and the shower although a little strangely shaped was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r304756026-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>304756026</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Very nice Hotel</t>
+  </si>
+  <si>
+    <t>Very nice welcome from desk clerk after a long drive started our one night stay. Really enjoyed this Hotel: clean, comfortable and quiet. Nice clean room and excellent coffee (left too early for breakfast)  will stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Very nice welcome from desk clerk after a long drive started our one night stay. Really enjoyed this Hotel: clean, comfortable and quiet. Nice clean room and excellent coffee (left too early for breakfast)  will stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r277604199-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>277604199</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Smile!!</t>
+  </si>
+  <si>
+    <t>I walked into the lobby and saw this lady with such this beautiful smile and when i told her how tired i was, she understood and immediately, gave me a room without any problem! I was very happy when she went out of her way to help me out ! when i checked out I saw her name tag it was Judy  She is a five star lady!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>I walked into the lobby and saw this lady with such this beautiful smile and when i told her how tired i was, she understood and immediately, gave me a room without any problem! I was very happy when she went out of her way to help me out ! when i checked out I saw her name tag it was Judy  She is a five star lady!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r275719832-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>275719832</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>We came to visit a friend in Lancaster. We were not sure where to stay and this hotel was recommended. The rooms here very clean and looks great! The staff was very friendly and welcoming. The next time we visit we will be staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We came to visit a friend in Lancaster. We were not sure where to stay and this hotel was recommended. The rooms here very clean and looks great! The staff was very friendly and welcoming. The next time we visit we will be staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r273591877-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>273591877</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Five Star Customer Service</t>
+  </si>
+  <si>
+    <t>I don't usually write more than one review for a location, but this could not be left unsaid. I wrote in my other review that I stay here quite a bit for work travel. It took a few months for me to notice, but my back was getting worse. I asked the front desk attendent if I could bring my own foam topper and sheets and just leave them there in storage. She checked with Judy the manager and the head of housekeeping and confirmed that this would be ok. I brought my things the next week and made the bed myself and then left them in the room as discussed. When I returned the following week however, I was greeted with an acknowledgement that my room was ready WITH MY THINGS ALREADY ON THE BED. Being away from home can be hard on frequent travelors, but the staff at this hotel have made me feel like I have a home away from home, and I can't express enough appreciation for that and this extremely kind and welcoming gesture.MoreShow less</t>
+  </si>
+  <si>
+    <t>I don't usually write more than one review for a location, but this could not be left unsaid. I wrote in my other review that I stay here quite a bit for work travel. It took a few months for me to notice, but my back was getting worse. I asked the front desk attendent if I could bring my own foam topper and sheets and just leave them there in storage. She checked with Judy the manager and the head of housekeeping and confirmed that this would be ok. I brought my things the next week and made the bed myself and then left them in the room as discussed. When I returned the following week however, I was greeted with an acknowledgement that my room was ready WITH MY THINGS ALREADY ON THE BED. Being away from home can be hard on frequent travelors, but the staff at this hotel have made me feel like I have a home away from home, and I can't express enough appreciation for that and this extremely kind and welcoming gesture.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r271522365-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>271522365</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>When traveling in the Lancaster/Palmdale, CA area, which is often, I always stay at the Springhill Suites by Marriott.  It's clean, roomy, comfortable, and has a great staff.  Vickie, one of the desk clerks will definitely take care of you to ensure your stay is what you expect it to be.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>When traveling in the Lancaster/Palmdale, CA area, which is often, I always stay at the Springhill Suites by Marriott.  It's clean, roomy, comfortable, and has a great staff.  Vickie, one of the desk clerks will definitely take care of you to ensure your stay is what you expect it to be.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r271106429-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>271106429</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>There was a jazz concert nearby so I decided to stay at a Marriott. So I chose SpringHill. This place is nice, quiet, and clean. Ilona checked me in. She was very nice, professional, and she gave me the room I requested because I had a long week and wanted a good nights rest. If I need to return the area, I will definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>There was a jazz concert nearby so I decided to stay at a Marriott. So I chose SpringHill. This place is nice, quiet, and clean. Ilona checked me in. She was very nice, professional, and she gave me the room I requested because I had a long week and wanted a good nights rest. If I need to return the area, I will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r269097730-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>269097730</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Very NIce</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels around to stay in Lancaster area. Very comfortable, great staff and extremely clean. Location is excellent, nearby restaurants are good. Very close to highway. Very quite roomsMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels around to stay in Lancaster area. Very comfortable, great staff and extremely clean. Location is excellent, nearby restaurants are good. Very close to highway. Very quite roomsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r265929233-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>265929233</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Vincent from VA</t>
+  </si>
+  <si>
+    <t>Although I stayed for only one night, I found this hotel to be of high quality and service.  People were very friendly and hospitable, especially Melenia at the front desk and the personnel attendants at the breakfast area.  For my future travel in this area I definately plan to return to this facility.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Although I stayed for only one night, I found this hotel to be of high quality and service.  People were very friendly and hospitable, especially Melenia at the front desk and the personnel attendants at the breakfast area.  For my future travel in this area I definately plan to return to this facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r263686618-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>263686618</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Room, Nice Service</t>
+  </si>
+  <si>
+    <t>We arrived around 10:00pm in the evening.  Our check in was quick.  When we got to our room, it was a little warm, so we turned on the a/c.  The room cooled very quickly.The hotel is right by the freeway and our room was very quiet.  The room and bathroom at the SpringHill Suites was very clean!  The room décor was typical SpringHill.Breakfast was also typical for a SpringHill Suites, it included:  coffee, juices, cereal, oatmeal, English muffins, bagels, etc.  There was something for everyone.  In the morning, there were complementary copies of USA Today and the Wall Street Journal at the front desk for guests.I would definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived around 10:00pm in the evening.  Our check in was quick.  When we got to our room, it was a little warm, so we turned on the a/c.  The room cooled very quickly.The hotel is right by the freeway and our room was very quiet.  The room and bathroom at the SpringHill Suites was very clean!  The room décor was typical SpringHill.Breakfast was also typical for a SpringHill Suites, it included:  coffee, juices, cereal, oatmeal, English muffins, bagels, etc.  There was something for everyone.  In the morning, there were complementary copies of USA Today and the Wall Street Journal at the front desk for guests.I would definitely stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r263229972-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>263229972</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Clean room, friendly staff, and the free breakfast was a plus.  I would recommend this hotel to anyone staying in Lancaster.  Dean the night supervisor was very helpful. There are some very good restaurants close by that also make this hotel very convenient to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean room, friendly staff, and the free breakfast was a plus.  I would recommend this hotel to anyone staying in Lancaster.  Dean the night supervisor was very helpful. There are some very good restaurants close by that also make this hotel very convenient to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r262059622-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>262059622</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Relaxing Stay in the Desert at SpringHill Suites Lancaster/Palmdale</t>
+  </si>
+  <si>
+    <t>I enjoyed the SpringHill Suites Lancaster/Palmdale.  The included morning breakfast was really well done!  The outdoor pool/spa was clean and quiet.  Dean helped ensure that everyting was great--taking the time to answer all my questions.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2015</t>
+  </si>
+  <si>
+    <t>I enjoyed the SpringHill Suites Lancaster/Palmdale.  The included morning breakfast was really well done!  The outdoor pool/spa was clean and quiet.  Dean helped ensure that everyting was great--taking the time to answer all my questions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r259816437-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>259816437</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Smelt like more CCF's than the Dry Cleaners</t>
+  </si>
+  <si>
+    <t>The room was too hot. Left the air conditioning on for four hours and it did not cool to less than 74 deg. (It wasn't that hot outside either). And, all of the linen smelt like it was overcooked in the dry cleaners. Did not sleep at all because of it. Oh yeah, and all those pictures of fresh fruit at breakfast...forget about that...all I saw was one banana. AND, to top it off, I was offered a bribe of points by the front desk to write a good review on trip advisor!!!! No thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded March 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2015</t>
+  </si>
+  <si>
+    <t>The room was too hot. Left the air conditioning on for four hours and it did not cool to less than 74 deg. (It wasn't that hot outside either). And, all of the linen smelt like it was overcooked in the dry cleaners. Did not sleep at all because of it. Oh yeah, and all those pictures of fresh fruit at breakfast...forget about that...all I saw was one banana. AND, to top it off, I was offered a bribe of points by the front desk to write a good review on trip advisor!!!! No thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r259589709-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>259589709</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Pleasure visit to Antelope Valley</t>
+  </si>
+  <si>
+    <t>The hotel staff was friendly and extremely accommodating. I try and always stay with Marriott Hotels but I'm not always fortunate enough to do so. This time I was and as usual Marriott doesn't disappoint. The beds are amazing, so much so that I want to buy one of their mattresses and the room was cool and quiet. Couldn't ask for more. The ONLY disappointment was the swimming pool.... Lame! Small and in the shade so it felt like ice.... But I didn't really need to swim in March. Overall VERY pleased! MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel staff was friendly and extremely accommodating. I try and always stay with Marriott Hotels but I'm not always fortunate enough to do so. This time I was and as usual Marriott doesn't disappoint. The beds are amazing, so much so that I want to buy one of their mattresses and the room was cool and quiet. Couldn't ask for more. The ONLY disappointment was the swimming pool.... Lame! Small and in the shade so it felt like ice.... But I didn't really need to swim in March. Overall VERY pleased! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r259111727-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>259111727</t>
+  </si>
+  <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
+    <t>A good night's rest after a long day of driving.</t>
+  </si>
+  <si>
+    <t>The desk agent greeted me and helped my with my room choice. Even though I had only made the reservation online 45 minutes earlier, he had my information and preferences ready when I arrived. The rooms are new and nice. The bed was awesome; I slept really well after a long day of driving. The hotel is adjacent to the highway (easy access) and a large selection of restaurants within a mile.MoreShow less</t>
+  </si>
+  <si>
+    <t>The desk agent greeted me and helped my with my room choice. Even though I had only made the reservation online 45 minutes earlier, he had my information and preferences ready when I arrived. The rooms are new and nice. The bed was awesome; I slept really well after a long day of driving. The hotel is adjacent to the highway (easy access) and a large selection of restaurants within a mile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r258968483-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>258968483</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Exceptional Staff</t>
+  </si>
+  <si>
+    <t>We stayed for 6 weeks, Mon-Fri, while receiving medical care close by. From the first inquiry call, when I spoke to Vicki about their handicapped accessibility and toilet height (which she found out and called me back with) I was impressed. Other front desk staff Judy and Melina were helpful during our stay and never ceased to amaze me, at how many guest names they knew and theirconsistantly going the extra mile. 
+Angelica, (I believe she is the Housekeeping Supervisor) and her staff were very accomadating and supportive during my changing medical needs. 
+David and Zac in Maintenance were very available , assisting us with room issues (our AC worked great after David showed us how to use it) . Thank you David for that first day when you washed our windows, because I would be spending alot of time in the room looking out and the recent rain had really dirtied the window. 
+The breakfast buffet was fresh and well cared for by Cameo and Rosa A. The fresh fruit was clean, but due to my medical condition I requested a second wash, which they always did with a smile. Thank you for your personal care of your guests.
+I don't know the name of the General Manager, but one day I got a call from Vicki, that he had assisted in making some changes for us, that really supported me, during one of my more vulnerable weeks of...We stayed for 6 weeks, Mon-Fri, while receiving medical care close by. From the first inquiry call, when I spoke to Vicki about their handicapped accessibility and toilet height (which she found out and called me back with) I was impressed. Other front desk staff Judy and Melina were helpful during our stay and never ceased to amaze me, at how many guest names they knew and theirconsistantly going the extra mile. Angelica, (I believe she is the Housekeeping Supervisor) and her staff were very accomadating and supportive during my changing medical needs. David and Zac in Maintenance were very available , assisting us with room issues (our AC worked great after David showed us how to use it) . Thank you David for that first day when you washed our windows, because I would be spending alot of time in the room looking out and the recent rain had really dirtied the window. The breakfast buffet was fresh and well cared for by Cameo and Rosa A. The fresh fruit was clean, but due to my medical condition I requested a second wash, which they always did with a smile. Thank you for your personal care of your guests.I don't know the name of the General Manager, but one day I got a call from Vicki, that he had assisted in making some changes for us, that really supported me, during one of my more vulnerable weeks of medical treatment. Thank you.On the lighter side: my husband really enjoyed the pool and jaquzzi; and the fact it was next to the Harley dealership. Location wise , it is close to many onramps, restaurants, drugstores, AlbertsonsWalmart, 99cents store. If you are in Lancaster on a Tuesday night the Cinemark Theater on I street is $5.75 all day and only a couple short miles awayMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We stayed for 6 weeks, Mon-Fri, while receiving medical care close by. From the first inquiry call, when I spoke to Vicki about their handicapped accessibility and toilet height (which she found out and called me back with) I was impressed. Other front desk staff Judy and Melina were helpful during our stay and never ceased to amaze me, at how many guest names they knew and theirconsistantly going the extra mile. 
+Angelica, (I believe she is the Housekeeping Supervisor) and her staff were very accomadating and supportive during my changing medical needs. 
+David and Zac in Maintenance were very available , assisting us with room issues (our AC worked great after David showed us how to use it) . Thank you David for that first day when you washed our windows, because I would be spending alot of time in the room looking out and the recent rain had really dirtied the window. 
+The breakfast buffet was fresh and well cared for by Cameo and Rosa A. The fresh fruit was clean, but due to my medical condition I requested a second wash, which they always did with a smile. Thank you for your personal care of your guests.
+I don't know the name of the General Manager, but one day I got a call from Vicki, that he had assisted in making some changes for us, that really supported me, during one of my more vulnerable weeks of...We stayed for 6 weeks, Mon-Fri, while receiving medical care close by. From the first inquiry call, when I spoke to Vicki about their handicapped accessibility and toilet height (which she found out and called me back with) I was impressed. Other front desk staff Judy and Melina were helpful during our stay and never ceased to amaze me, at how many guest names they knew and theirconsistantly going the extra mile. Angelica, (I believe she is the Housekeeping Supervisor) and her staff were very accomadating and supportive during my changing medical needs. David and Zac in Maintenance were very available , assisting us with room issues (our AC worked great after David showed us how to use it) . Thank you David for that first day when you washed our windows, because I would be spending alot of time in the room looking out and the recent rain had really dirtied the window. The breakfast buffet was fresh and well cared for by Cameo and Rosa A. The fresh fruit was clean, but due to my medical condition I requested a second wash, which they always did with a smile. Thank you for your personal care of your guests.I don't know the name of the General Manager, but one day I got a call from Vicki, that he had assisted in making some changes for us, that really supported me, during one of my more vulnerable weeks of medical treatment. Thank you.On the lighter side: my husband really enjoyed the pool and jaquzzi; and the fact it was next to the Harley dealership. Location wise , it is close to many onramps, restaurants, drugstores, AlbertsonsWalmart, 99cents store. If you are in Lancaster on a Tuesday night the Cinemark Theater on I street is $5.75 all day and only a couple short miles awayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r258765814-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>258765814</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Nice...but no AC</t>
+  </si>
+  <si>
+    <t>The room was nice, comfy beds, clean bathroom. We had a fridge and microwave, but the AC hardly worked. We had to Crack open the window and listen to the freeway  traffic just to get some cool air in the room. We had the AC on 60 but hardly put any air out. The staff was really nice and the free breakfast was great!I gave it 4 stars because of the AC but if that worked it would have 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was nice, comfy beds, clean bathroom. We had a fridge and microwave, but the AC hardly worked. We had to Crack open the window and listen to the freeway  traffic just to get some cool air in the room. We had the AC on 60 but hardly put any air out. The staff was really nice and the free breakfast was great!I gave it 4 stars because of the AC but if that worked it would have 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r256509075-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>256509075</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Great choice when traveling</t>
+  </si>
+  <si>
+    <t>When my work colleague and I travel to the Los Angeles area we always choose the SpringHill Suites in Lancaster. We always feel at home when we stay here. There are so many good things to say about this Hotel but the one thing that stands out the most...... are the people, they are very friendly here.Upon our arrival Vicki always gives a warm greeting at the front desk and takes the time to ask us how are day was. That's not to say we dont enjoy the other perks here, like the hot breakfast, the gym, and nice clean rooms with comfortable beds.All in all if you want a perfect balance of comfort, style, good hospitality at a great price the SpringHill Suites is always a perfect choice.JohnMoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2015</t>
+  </si>
+  <si>
+    <t>When my work colleague and I travel to the Los Angeles area we always choose the SpringHill Suites in Lancaster. We always feel at home when we stay here. There are so many good things to say about this Hotel but the one thing that stands out the most...... are the people, they are very friendly here.Upon our arrival Vicki always gives a warm greeting at the front desk and takes the time to ask us how are day was. That's not to say we dont enjoy the other perks here, like the hot breakfast, the gym, and nice clean rooms with comfortable beds.All in all if you want a perfect balance of comfort, style, good hospitality at a great price the SpringHill Suites is always a perfect choice.JohnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r255895901-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>255895901</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Great hotel, but it's the PEOPLE who make it perfect</t>
+  </si>
+  <si>
+    <t>My wife and I stayed Feb 20 &amp; 21 2015.  King suite #318.  The room and hotel were clean, comfortable and  spacious - great value for the price.  Breakfast was good, and served at the right temperature.  Pool looked nice but the outside temps were low so I didn't try it!But it was Vicki and Jason at the front desk who made it special.  Vicki gave me a list of things to do and restaurants to try, and Jason  shared his favorite steakhouse with us.  We went there for my birthday dinner and it was excellent.  On Saturday morning, Vicki not only remembered where I said we wanted to go, but had printed out directions for us.By the way, the picture is of my wife.  She's much better looking than I am!Strongly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed Feb 20 &amp; 21 2015.  King suite #318.  The room and hotel were clean, comfortable and  spacious - great value for the price.  Breakfast was good, and served at the right temperature.  Pool looked nice but the outside temps were low so I didn't try it!But it was Vicki and Jason at the front desk who made it special.  Vicki gave me a list of things to do and restaurants to try, and Jason  shared his favorite steakhouse with us.  We went there for my birthday dinner and it was excellent.  On Saturday morning, Vicki not only remembered where I said we wanted to go, but had printed out directions for us.By the way, the picture is of my wife.  She's much better looking than I am!Strongly recommended!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r254678012-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>254678012</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>Definitely will be our first choice to stay in Lancaster/Palmdale</t>
+  </si>
+  <si>
+    <t>President's Day Weekend; California State-Wide Soccer Tournaments; School Holidays; Valentine's Day; etc. etc. etc.  It all added up to a nightmare trying to find a room anywhere in the LA basin.  I called the Springhill Suites in Lancaster directly and spoke with Vicky on the phone.  She instantly became my BFF.  We had to basically drive an extra 100 miles to stay here, but it was SO worth it.  After driving for two hours, Vicky greeted us at the front desk, found us a quiet room at the end of the corridor on the third floor (the hotel was full of young soccer players), and suggested a company to deliver pizza... In other words, she did everything except tuck us in for the night.  WONDERFUL night's sleep; the best ever.  Marriott properties seldom disappoint and this one is no exception.  Spotlessly clean, perfectly maintained, GREAT stafff.  Oh, and LIGHTNING-FAST--I mean AMAZINGLY, UNBELIEVABLY FAST wi-fi.  If we're ever passing through Lancaster/Palmdale in the future, this will definitely be our first choice to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>President's Day Weekend; California State-Wide Soccer Tournaments; School Holidays; Valentine's Day; etc. etc. etc.  It all added up to a nightmare trying to find a room anywhere in the LA basin.  I called the Springhill Suites in Lancaster directly and spoke with Vicky on the phone.  She instantly became my BFF.  We had to basically drive an extra 100 miles to stay here, but it was SO worth it.  After driving for two hours, Vicky greeted us at the front desk, found us a quiet room at the end of the corridor on the third floor (the hotel was full of young soccer players), and suggested a company to deliver pizza... In other words, she did everything except tuck us in for the night.  WONDERFUL night's sleep; the best ever.  Marriott properties seldom disappoint and this one is no exception.  Spotlessly clean, perfectly maintained, GREAT stafff.  Oh, and LIGHTNING-FAST--I mean AMAZINGLY, UNBELIEVABLY FAST wi-fi.  If we're ever passing through Lancaster/Palmdale in the future, this will definitely be our first choice to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r254105542-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>254105542</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>Service with a smile</t>
+  </si>
+  <si>
+    <t>With the constant traveling I do, it is always a welcome sight to have a hotel that makes you feel at home.  From the time you check in until the time you check out, the staff at this Springhill goes out of their way to make you part of their family!DickMoreShow less</t>
+  </si>
+  <si>
+    <t>With the constant traveling I do, it is always a welcome sight to have a hotel that makes you feel at home.  From the time you check in until the time you check out, the staff at this Springhill goes out of their way to make you part of their family!DickMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r254056758-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>254056758</t>
+  </si>
+  <si>
+    <t>02/13/2015</t>
+  </si>
+  <si>
+    <t>A Great Place To Stay</t>
+  </si>
+  <si>
+    <t>I stay with my wife Carmen quite frequently here.   We are frequently greeted by Vicky or Malani who always note my preferences listed on Marriot Rewards.  Vicky is always engaging and has referred us to several really great restaurants.  The rooms are always perfect and absolutely clean.  We always enjoy the full hot breakfast, it provides a great start.  I leave for business and my wife likes to sleep in.  We love the fact that  when we put out the do not disturb sign it is observed.  This place is the perfect stay away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded February 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2015</t>
+  </si>
+  <si>
+    <t>I stay with my wife Carmen quite frequently here.   We are frequently greeted by Vicky or Malani who always note my preferences listed on Marriot Rewards.  Vicky is always engaging and has referred us to several really great restaurants.  The rooms are always perfect and absolutely clean.  We always enjoy the full hot breakfast, it provides a great start.  I leave for business and my wife likes to sleep in.  We love the fact that  when we put out the do not disturb sign it is observed.  This place is the perfect stay away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r254052886-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>254052886</t>
+  </si>
+  <si>
+    <t>WILOTT Business Travel</t>
+  </si>
+  <si>
+    <t>I am a loyal Marriott customer that travels over 100 days a year.  I arrived very late after a long flight across the country and Vicki was very helpful and friendly at check in.  I have been here a week and she has had a friendly smile on her face everyday that I come in from work.  I will certainly stay here the next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a loyal Marriott customer that travels over 100 days a year.  I arrived very late after a long flight across the country and Vicki was very helpful and friendly at check in.  I have been here a week and she has had a friendly smile on her face everyday that I come in from work.  I will certainly stay here the next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r253618886-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>253618886</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>WOW!!!</t>
+  </si>
+  <si>
+    <t>The hotel staff were wonderful, the room was spotless and the layout of the room was spacious and very comfortable. When we arrived it was late and the girls made us feel right at home. I would not hesitate in the future to stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>The hotel staff were wonderful, the room was spotless and the layout of the room was spacious and very comfortable. When we arrived it was late and the girls made us feel right at home. I would not hesitate in the future to stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r253579791-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>253579791</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>I travel a lot for work and have stayed in many hotels, including several Marriot's. I am in a hotel at least two nights per week, but usually three or four. I have gotten used to the level of service provided by Marriot staff and have been pleasantly surprised by the personal touch the staff at this hotel provide. I am greeted by name by the evening and morning staff and am always treated like family. We laugh and joke, they remember our last discussion, follow up and are always flexible and willing to help when my schedule changes. There was a time when I left some shoes behind by accident. When I called, Judy who was at the front desk at the time, checked the lost and found and confirmed for me that I had indeed left them behind. She then took it upon herself to look up my next reservation and have my shoes polished and left in my room for the following week. Now that's what I call customer service. The rooms are clean and spacious. The beds are comfortable and I like the little seating area with the small kitchen. Being away from home all week, every week can get hard, but this hotel feels like home away from home and I really appreciate it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel a lot for work and have stayed in many hotels, including several Marriot's. I am in a hotel at least two nights per week, but usually three or four. I have gotten used to the level of service provided by Marriot staff and have been pleasantly surprised by the personal touch the staff at this hotel provide. I am greeted by name by the evening and morning staff and am always treated like family. We laugh and joke, they remember our last discussion, follow up and are always flexible and willing to help when my schedule changes. There was a time when I left some shoes behind by accident. When I called, Judy who was at the front desk at the time, checked the lost and found and confirmed for me that I had indeed left them behind. She then took it upon herself to look up my next reservation and have my shoes polished and left in my room for the following week. Now that's what I call customer service. The rooms are clean and spacious. The beds are comfortable and I like the little seating area with the small kitchen. Being away from home all week, every week can get hard, but this hotel feels like home away from home and I really appreciate it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r253466008-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>253466008</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Yet Another Business Trip</t>
+  </si>
+  <si>
+    <t>My stay at the Springhill Suites in Lancaster was great as usual.  The rooms are always clean, I always feel comfortable, and the people that work here always make me feel like I am at home.  Thanks again to Vikki whom I have only talked to on the phone and finally got to meet this trip.  It's people like her that make people feel like they are coming to their home away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at the Springhill Suites in Lancaster was great as usual.  The rooms are always clean, I always feel comfortable, and the people that work here always make me feel like I am at home.  Thanks again to Vikki whom I have only talked to on the phone and finally got to meet this trip.  It's people like her that make people feel like they are coming to their home away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r240129530-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
+  </si>
+  <si>
+    <t>240129530</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Not welcome back. No problem!</t>
+  </si>
+  <si>
+    <t>So I actually liked this hotel, for the most part. However, shortly after leaving the property, I get a call from the front desk claiming I smoked in the room. I did not smoke in the room. I smoked outside, and if they check their cameras, they would see me going in and out throughout the night, going to smoke. Its possible that the smell was still on my clothes and what not, but I guarantee that no actual evidence of smoking was found.  Other than that, the hotel is fine. Staff is a bit rude, but the bed was comfortable, the breakfast was alright, good water pressure and clean rooms. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Chris K, General Manager at SpringHill Suites Lancaster Palmdale, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>So I actually liked this hotel, for the most part. However, shortly after leaving the property, I get a call from the front desk claiming I smoked in the room. I did not smoke in the room. I smoked outside, and if they check their cameras, they would see me going in and out throughout the night, going to smoke. Its possible that the smell was still on my clothes and what not, but I guarantee that no actual evidence of smoking was found.  Other than that, the hotel is fine. Staff is a bit rude, but the bed was comfortable, the breakfast was alright, good water pressure and clean rooms. More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2119,4311 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>72</v>
+      </c>
+      <c r="X6" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>72</v>
+      </c>
+      <c r="X7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>72</v>
+      </c>
+      <c r="X8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>101</v>
+      </c>
+      <c r="X9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>110</v>
+      </c>
+      <c r="X13" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>138</v>
+      </c>
+      <c r="X14" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>138</v>
+      </c>
+      <c r="X15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>138</v>
+      </c>
+      <c r="X16" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>65</v>
+      </c>
+      <c r="O18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>65</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s">
+        <v>187</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>205</v>
+      </c>
+      <c r="X23" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>213</v>
+      </c>
+      <c r="X24" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>213</v>
+      </c>
+      <c r="X25" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>229</v>
+      </c>
+      <c r="X26" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>229</v>
+      </c>
+      <c r="X27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>239</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>229</v>
+      </c>
+      <c r="X28" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" t="s">
+        <v>249</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>252</v>
+      </c>
+      <c r="J30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>229</v>
+      </c>
+      <c r="X30" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>221</v>
+      </c>
+      <c r="O31" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>271</v>
+      </c>
+      <c r="X32" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>249</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>271</v>
+      </c>
+      <c r="X33" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>271</v>
+      </c>
+      <c r="X34" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>287</v>
+      </c>
+      <c r="J35" t="s">
+        <v>288</v>
+      </c>
+      <c r="K35" t="s">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s">
+        <v>290</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>291</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>292</v>
+      </c>
+      <c r="X35" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>292</v>
+      </c>
+      <c r="X36" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s">
+        <v>305</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>306</v>
+      </c>
+      <c r="O37" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>292</v>
+      </c>
+      <c r="X37" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>313</v>
+      </c>
+      <c r="X38" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>317</v>
+      </c>
+      <c r="J39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K39" t="s">
+        <v>319</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>313</v>
+      </c>
+      <c r="X39" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>321</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>313</v>
+      </c>
+      <c r="X40" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>330</v>
+      </c>
+      <c r="J41" t="s">
+        <v>331</v>
+      </c>
+      <c r="K41" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" t="s">
+        <v>333</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>321</v>
+      </c>
+      <c r="O41" t="s">
+        <v>66</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>313</v>
+      </c>
+      <c r="X41" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>341</v>
+      </c>
+      <c r="X42" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>349</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>350</v>
+      </c>
+      <c r="X43" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>353</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>354</v>
+      </c>
+      <c r="J44" t="s">
+        <v>355</v>
+      </c>
+      <c r="K44" t="s">
+        <v>356</v>
+      </c>
+      <c r="L44" t="s">
+        <v>357</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>358</v>
+      </c>
+      <c r="O44" t="s">
+        <v>249</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>359</v>
+      </c>
+      <c r="X44" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>363</v>
+      </c>
+      <c r="J45" t="s">
+        <v>364</v>
+      </c>
+      <c r="K45" t="s">
+        <v>365</v>
+      </c>
+      <c r="L45" t="s">
+        <v>366</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>367</v>
+      </c>
+      <c r="O45" t="s">
+        <v>100</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>359</v>
+      </c>
+      <c r="X45" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>369</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>370</v>
+      </c>
+      <c r="J46" t="s">
+        <v>371</v>
+      </c>
+      <c r="K46" t="s">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s">
+        <v>373</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>367</v>
+      </c>
+      <c r="O46" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>359</v>
+      </c>
+      <c r="X46" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>375</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>376</v>
+      </c>
+      <c r="J47" t="s">
+        <v>377</v>
+      </c>
+      <c r="K47" t="s">
+        <v>378</v>
+      </c>
+      <c r="L47" t="s">
+        <v>379</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>367</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s">
+        <v>386</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>367</v>
+      </c>
+      <c r="O48" t="s">
+        <v>249</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>380</v>
+      </c>
+      <c r="X48" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>389</v>
+      </c>
+      <c r="J49" t="s">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>393</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>380</v>
+      </c>
+      <c r="X49" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>395</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>396</v>
+      </c>
+      <c r="J50" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50" t="s">
+        <v>398</v>
+      </c>
+      <c r="L50" t="s">
+        <v>399</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>393</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>400</v>
+      </c>
+      <c r="X50" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>403</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>404</v>
+      </c>
+      <c r="J51" t="s">
+        <v>405</v>
+      </c>
+      <c r="K51" t="s">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s">
+        <v>407</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>393</v>
+      </c>
+      <c r="O51" t="s">
+        <v>93</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>400</v>
+      </c>
+      <c r="X51" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s">
+        <v>413</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>393</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>400</v>
+      </c>
+      <c r="X52" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>417</v>
+      </c>
+      <c r="K53" t="s">
+        <v>418</v>
+      </c>
+      <c r="L53" t="s">
+        <v>419</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>420</v>
+      </c>
+      <c r="O53" t="s">
+        <v>249</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>421</v>
+      </c>
+      <c r="X53" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>425</v>
+      </c>
+      <c r="J54" t="s">
+        <v>426</v>
+      </c>
+      <c r="K54" t="s">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>420</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>429</v>
+      </c>
+      <c r="X54" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>433</v>
+      </c>
+      <c r="J55" t="s">
+        <v>434</v>
+      </c>
+      <c r="K55" t="s">
+        <v>435</v>
+      </c>
+      <c r="L55" t="s">
+        <v>436</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>429</v>
+      </c>
+      <c r="X55" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>439</v>
+      </c>
+      <c r="J56" t="s">
+        <v>440</v>
+      </c>
+      <c r="K56" t="s">
+        <v>441</v>
+      </c>
+      <c r="L56" t="s">
+        <v>442</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>420</v>
+      </c>
+      <c r="O56" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>429</v>
+      </c>
+      <c r="X56" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>445</v>
+      </c>
+      <c r="J57" t="s">
+        <v>446</v>
+      </c>
+      <c r="K57" t="s">
+        <v>447</v>
+      </c>
+      <c r="L57" t="s">
+        <v>448</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>449</v>
+      </c>
+      <c r="O57" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>429</v>
+      </c>
+      <c r="X57" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>452</v>
+      </c>
+      <c r="J58" t="s">
+        <v>453</v>
+      </c>
+      <c r="K58" t="s">
+        <v>454</v>
+      </c>
+      <c r="L58" t="s">
+        <v>455</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>420</v>
+      </c>
+      <c r="O58" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>429</v>
+      </c>
+      <c r="X58" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>457</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>458</v>
+      </c>
+      <c r="J59" t="s">
+        <v>459</v>
+      </c>
+      <c r="K59" t="s">
+        <v>460</v>
+      </c>
+      <c r="L59" t="s">
+        <v>461</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>449</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>462</v>
+      </c>
+      <c r="X59" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" t="s">
+        <v>467</v>
+      </c>
+      <c r="K60" t="s">
+        <v>468</v>
+      </c>
+      <c r="L60" t="s">
+        <v>469</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>449</v>
+      </c>
+      <c r="O60" t="s">
+        <v>100</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>470</v>
+      </c>
+      <c r="X60" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>473</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>474</v>
+      </c>
+      <c r="J61" t="s">
+        <v>475</v>
+      </c>
+      <c r="K61" t="s">
+        <v>476</v>
+      </c>
+      <c r="L61" t="s">
+        <v>477</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>449</v>
+      </c>
+      <c r="O61" t="s">
+        <v>100</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>478</v>
+      </c>
+      <c r="X61" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>481</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>482</v>
+      </c>
+      <c r="J62" t="s">
+        <v>483</v>
+      </c>
+      <c r="K62" t="s">
+        <v>484</v>
+      </c>
+      <c r="L62" t="s">
+        <v>485</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>449</v>
+      </c>
+      <c r="O62" t="s">
+        <v>66</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>470</v>
+      </c>
+      <c r="X62" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>488</v>
+      </c>
+      <c r="J63" t="s">
+        <v>489</v>
+      </c>
+      <c r="K63" t="s">
+        <v>490</v>
+      </c>
+      <c r="L63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>492</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>493</v>
+      </c>
+      <c r="X63" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>496</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>497</v>
+      </c>
+      <c r="J64" t="s">
+        <v>489</v>
+      </c>
+      <c r="K64" t="s">
+        <v>498</v>
+      </c>
+      <c r="L64" t="s">
+        <v>499</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>449</v>
+      </c>
+      <c r="O64" t="s">
+        <v>66</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>478</v>
+      </c>
+      <c r="X64" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>501</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>502</v>
+      </c>
+      <c r="J65" t="s">
+        <v>503</v>
+      </c>
+      <c r="K65" t="s">
+        <v>504</v>
+      </c>
+      <c r="L65" t="s">
+        <v>505</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>492</v>
+      </c>
+      <c r="O65" t="s">
+        <v>100</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>506</v>
+      </c>
+      <c r="X65" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>509</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>510</v>
+      </c>
+      <c r="J66" t="s">
+        <v>503</v>
+      </c>
+      <c r="K66" t="s">
+        <v>511</v>
+      </c>
+      <c r="L66" t="s">
+        <v>512</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>449</v>
+      </c>
+      <c r="O66" t="s">
+        <v>66</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>506</v>
+      </c>
+      <c r="X66" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>514</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>515</v>
+      </c>
+      <c r="J67" t="s">
+        <v>516</v>
+      </c>
+      <c r="K67" t="s">
+        <v>517</v>
+      </c>
+      <c r="L67" t="s">
+        <v>518</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>449</v>
+      </c>
+      <c r="O67" t="s">
+        <v>66</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>493</v>
+      </c>
+      <c r="X67" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>56858</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>521</v>
+      </c>
+      <c r="J68" t="s">
+        <v>522</v>
+      </c>
+      <c r="K68" t="s">
+        <v>523</v>
+      </c>
+      <c r="L68" t="s">
+        <v>524</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>525</v>
+      </c>
+      <c r="O68" t="s">
+        <v>249</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>526</v>
+      </c>
+      <c r="X68" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_709.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_709.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>tog1966</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Darlene S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r521227081-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>loppermopper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r518105305-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>joe292</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r500474181-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>We stayed here on a family trip from LA to Las Vegas. After a 11 hour flight we needed somewhere to rest. Check in was seamless. The room was big. Two big beds and a sofa bed. Kitchen with fridge and microwave. Great value as Wi-Fi, parking and breakfast was included. Bathroom was big and clean. Found a cockroach in the bathtub. Could happen anywhere and don't forget we are in the dessert. And it was 110 degrees outside.Good breakfast buffet which is included in the price.More</t>
   </si>
   <si>
+    <t>Diverted</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r494681811-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>My wife and I stayed here mid-June 2017.  The staff were great, the room was clean and up to date, and the bed was very comfortable.  What more could you ask for.  We didn't get a chance to try the breakfast as we were visiting family that wanted us to eat with them.More</t>
   </si>
   <si>
+    <t>Chris F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r493087003-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>This hotel has just been updated with new paint and carpet.  I always stay in Marriott hotels but never have stayed in a SpringHill Suites.  They have a very good continental breakfast and the staff was great.  SpringHill Suites is now on my list of hotels to stay in.More</t>
   </si>
   <si>
+    <t>Sandy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r485387664-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>I have stayed here many times and been pleased each time.   The rooms are excellent..very clean and well laid out.   Lots of parking.  Helpful friendly staff.   The only thing I just don't get is the style of the remodel of the breakfast area...very edgy in color and design.    I saw no need for it...a waste of money in my opinion but it won't make me find another hotel.More</t>
   </si>
   <si>
+    <t>EdE572</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r482794192-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>This is a very good hotel.  Very nice rooms, wonderful beds, and not the usual room design you find everywhere else. Very nice breakfast. Close to Freeway but you don't hear the noise at all. A/C units are very quiet. Definitely will stay there again when in the area.More</t>
   </si>
   <si>
+    <t>carmat3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r474298936-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -357,6 +384,9 @@
     <t>Had a great experience from beginning to end. Stayed here for one night for work.  Staff was friendly and helpful.  The suite was very nice, and clean.  The bead was also to both of our liking.   We had some issues with the Wifi at first  but they put us in touch with tech support right away and they solved our problem. It was 11 pm and it took less than 10 minutes to solve the issue.   Breakfast was adequate for a Marriott.  They Honored the late check out until 4pm for a gold member.More</t>
   </si>
   <si>
+    <t>Brenda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r473481057-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>We stayed at SpringHill for its location- right next to the Lancaster Harley Davidson.  After riding for 7 hours SpringHill welcomed us with a newly renovated room, clean and soft bedding and towels, new carpet throughout and a wonderful breakfast in the morning. Room was quiet and comfortable. Staff was very friendly and I would definitely stay again and recommend. More</t>
   </si>
   <si>
+    <t>Gerrie714</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r473074577-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -393,6 +426,9 @@
     <t>Nice newer clean hotel.  Good place to stay to go see the Poppy Field.  Good free breakfast choices.  Free newspapers.  Large screen TV, large couch and desk.  Not a huge room but adequate.  Near shopping and restaurants.More</t>
   </si>
   <si>
+    <t>DudeWithGlasses</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r470721167-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>Really nice hotel! The elevator is slow as all forever. Not too far from the 14, and tucked into a quiet area. Wifi is decent but not fast. Rooms are well fitted and the ac works really well. Ample parking and would def stay again.More</t>
   </si>
   <si>
+    <t>Jeannie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r459017428-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>Even though they were updating many of the public areas, we were never inconvenienced. The staff were very friendly and the hotel is very clean. The towels were just so plush! These were really NICE towels....not what I expected at a SpringHill Suites....maybe at a Renaissance. Only downside was the air conditioner. The room either was stuffy or too cold. So ended up running the air for a while to cool down the room, then turning it off for a while.More</t>
   </si>
   <si>
+    <t>Emunguia1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r458960432-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -456,6 +498,9 @@
     <t>Family getaway for a soccer tournament and our stay was great. Rooms are beautiful and service was fantastic. Got extra towels, and the staff was very pleasant. Rooms were clean and quiet, location was convenientMore</t>
   </si>
   <si>
+    <t>Hutch F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r458288348-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -474,6 +519,9 @@
     <t>The service was great.  Nice place to stay.  Clean.  Breakfast was good.  Lot's of families in for State Cup and they managed it all very well. The staff was very friendly and engaging. I would stay again.More</t>
   </si>
   <si>
+    <t>Rob O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r439328265-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -501,6 +549,9 @@
     <t>I've stayed at the hotel on two occasions in the last two weeks for business.  I can't say enough about the staff.  The manager Judy came to my rescue on my first stay by helping me print and organize several documents for a morning meeting.  She even loaned me her stapler and gave me paperclips to help out.  She was a life-saver.  The breakfast options were also great and saved me from having to pick up food and coffee on the way to my meeting.   My second stay was the same.  Great service from Judy, nice breakfast, comfortable bed.  I will be using this hotel going forward when I have meetings in the area.More</t>
   </si>
   <si>
+    <t>vincent-dirks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r433084927-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -525,6 +576,9 @@
     <t>In a relatively new hotel, no less!There was one in the bathroom. Killed it.There was another one in the kitchen area. Killed that one too.Disgusting. It happened the morning of checkout, so I got out of there FAST.Clearly the cleaning staff is on the lazy side!To date I only had cockroaches in outdated and neglected Holiday Inns.....I am NOT coming back to this property.More</t>
   </si>
   <si>
+    <t>Alice P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r433035128-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -540,6 +594,9 @@
     <t>Our first hotel of our big USA road trip - didn't get much sleep as I was majorly jet lagged,  but the rest of the family did! Staff were friendly. At first we were disappointed with the breakfast - the croissants weren't fresh. However, the breakfast was by far the best compared to the other hotels we stayed in during our holiday in the US - it was the only one that served ham and cheese and different type of watermelon, for example.More</t>
   </si>
   <si>
+    <t>Linda K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r425113666-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -567,6 +624,9 @@
     <t>The room was very clean, quiet, modern, and comfortable.  The breakfast buffet was very good and offered hot items as well as protein.  We could walk to a restaurant nearby  for a good dinner.  It was one of the best stays on our trip an  the price was in our range.  The room space was divided into sections so you felt like you were in a small apartment.More</t>
   </si>
   <si>
+    <t>Glenn S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r420903391-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -591,6 +651,9 @@
     <t>Sixteen days on a motorcycle trip and this was the best of them all. This is a modern updated hotel with all of the best. It has a sitting room with a little bar area etc. The morning breakfast is one of the best. Very nice place.More</t>
   </si>
   <si>
+    <t>old60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r419964396-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -615,6 +678,9 @@
     <t>We stayed here one night on a State Rally. Right next to Harley Dealership and freeway. Room was very nice and roomy. The bed was comfortable. Staff was friendly. Free breakfast was nice. Would stay here againMore</t>
   </si>
   <si>
+    <t>Bill C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r398656224-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -642,6 +708,9 @@
     <t>Nothing to rave about here - it's just good enough I guess.  Carpet and bathrooms are nice.  Staff was friendly.  Rooms seemed a bit small and dark to me.The one thing that stood out was that every night I could hear conversations going on in the room to my right and the room to my left.I also left a note that the iron was broken.  While they picked up the broken iron, they never replaced it.More</t>
   </si>
   <si>
+    <t>ZagFan2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r387187572-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -666,6 +735,9 @@
     <t>Having Marriott Rewards (card, not just rewards program) makes no difference at this hotel. Hypoallergenic pillows were requested months prior and when we arrived the room had almost exclusively feather pillows (apparently even more than all rooms are supposed to). When we requested they be removed and replaced with a few hypoallergenic pillows, the front desk staff advised they didn't have any more. We complained again the next day but there was apparently only one employee working at that time - she had to go into empty rooms to get us the correct pillows. While the hotel overall was pleasant, quiet and clean, this room needed some work (had what we hoped was ketchup splattered on the ceiling). Given the price we were able to get, we'd stay again but will call before we arrive to ensure our allergy requests are met. More</t>
   </si>
   <si>
+    <t>alicerabbit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r379477128-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -687,6 +759,9 @@
     <t>We like to stop in Lancaster for a night on our drives from San Jose to Las Vegas.  It breaks up the driving days nicely.  Room was very clean and bed comfortable.  Breakfast in Springhills is always satisfactory.  Ask for a room away from the freeway.More</t>
   </si>
   <si>
+    <t>Miranda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r376281240-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -714,6 +789,9 @@
     <t>Springhill Suites Lancaster Palmdale is located in a convenient location.  The staff was friendly and courteous.  The room was clean and spacious.  I only had two problems, I could clearly hear my neighbor sneezing next door and the vanity light bulb never came completely on.More</t>
   </si>
   <si>
+    <t>Trina F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r375954263-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -732,6 +810,9 @@
     <t>This was a great place at a very reasonable rate. It is next door to a Harley Shop so during the day we did have to hear the "Hogs". Husband has several Harley's so it wasn't anything we weren't use to, but it was fine after the shop closed at 6. Used the mobile check-in so it took like one minute to pick up the keys &amp; get directions to our room. It was centrally located so getting to all the functions we had in town was easy. Will stay here again when we are in the area.More</t>
   </si>
   <si>
+    <t>daughterJudy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r375939140-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -747,6 +828,9 @@
     <t>Springhiil Suites in Lancaster is our hotel of choice when visiting family. The rooms are room with a sitting area. The beds are great, good night sleep. Good breakfast with something for everyone. Friendly staff. Judy was fantastic.More</t>
   </si>
   <si>
+    <t>Vincent N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r366336096-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -771,6 +855,9 @@
     <t>I chose to stay at this property based on the fact that it's right next to the highway and it's not that far from Rosamond.  Check-in was pretty easy and the lady at reception was very friendly and efficient.  The room was pretty clean.However, noise was an issue and it wasn't coming from the highway.  I was able to hear the guy next to my room.  He was on the phone and I honestly think he was talking to his secretary or something.  Next was when the water was running in his room.  When he ran the shower, the noise coming from the water pipes was so loud it woke me up at 5am!  The last thing was equally as bad.  My room faced the Harley showroom and I could hear motorcycles early morning on both days of my stay.  Could you imagine how well I slept on those three nights?More</t>
   </si>
   <si>
+    <t>Ruth T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r361192911-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -789,6 +876,9 @@
     <t>This was our first stay in a SpringHill Suites property.  The room was clean, spacious,  quiet and had a comfortable couch and sitting chair in addition to a comfortable desk seat and a second sink with counter space.  There was a full, hot breakfast with scrambled eggs, sliced cheese and lunch meats, yogurt, fruit and all the usual cereal/toast/muffin choices.  There was a comfortable, spacious breakfast area, a gym, pool and spa.  Great value!More</t>
   </si>
   <si>
+    <t>transplantedNYer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r355163859-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -813,6 +903,9 @@
     <t>After a long drive, we arrived at the hotel.  It was very easy to find and check in was extremely fast (I had downloaded the Marriott app and had already checked in).  Room was nice and clean; the bed was comfortable and a full complimentary breakfast was available in the morning.  Check out equally fast using the mobil app.More</t>
   </si>
   <si>
+    <t>Juanita H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r346735597-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -838,6 +931,9 @@
   </si>
   <si>
     <t>We visited the hotel during a soccer tournament weekend, the "State Cup".  We couldn't find a reservation for our girls team and parents at any local restaurants, so we worked with the staff and they worked with us to find space for a local restaurant to cater in dinner, and for us to have their business room for the girls.  The team there, from the front office staff I originally worked with, to the team that worked the evening of January 23rd, were beyond exceptional.  Our girls team even shared their "build your own trail mix" bags with them - given how lovely everyone was.  We appreciated the flexibility and openness, the front desk supervisors help, and the evening staff support ... and when we made sure to have our girls clean up and such, the team was great in supporting us.  We will be back!More</t>
+  </si>
+  <si>
+    <t>Kwanita W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r343203122-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
@@ -866,6 +962,9 @@
 We actually had a whole discussion about the difficulty I experienced trying to find the hotel location because of my GPS - we figured out if you leave out West - the hotel address will populate into the Garmin GPS systems. Now that I know how to locate the hotel, I'll be certain to make another visit in the...The Springhill Suites in Lancaster, CA, is an absolute gem! Upon arrival, I was properly greeted by the front desk clerk and my room was ready (even earlier than the normal check in time). She even suggested a few favorite restaurants in the area and her favorite spot definitely met my needs. The room was super clean and the housekeeping staff was delightful and super quick too.The next morning, I had a delicious breakfast with great food options. I met another front desk clerk but unfortunately I have forgotten her name but she is who made my entire experience so ENJOYABLE and if I've ever in the area again - I will definitely stay at this hotel. She was so personable and friendly and full of life!  Not to mention, she was super busy but didn't miss a beat as the phones were ringing  off the hook. Even though, I still felt as if I was the only person standing there but everything was under complete control. I also met her counterpart, Jason - and he was very nice also.We actually had a whole discussion about the difficulty I experienced trying to find the hotel location because of my GPS - we figured out if you leave out West - the hotel address will populate into the Garmin GPS systems. Now that I know how to locate the hotel, I'll be certain to make another visit in the very near future.If you are reading this review, I suggest you do the same. I'm quite sure you will be just as happy. Very great stay and looking forward to the next visit. Take care.More</t>
   </si>
   <si>
+    <t>gorton1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r340985375-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -884,6 +983,9 @@
     <t>I'm often here in association with a high-performance driving club that uses the Willow Springs International Raceway facilities. It's a super place, with a very courteous and friendly staff, who - despite rollovers - has gotten to recognize me and others in the club.  I'm happy with the room; everything is always in tip-top shape.   I've only had one time when the WiFi wasn't working (but was too tired at that point to care), and it was up the next morning.   I wish the pool and jacuzzi were bigger, and rear-facing rooms tend to get a bit more highway noise than desirable for a light sleeper like me.  But all-in-all this is a great place to stay.More</t>
   </si>
   <si>
+    <t>krolikv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r331610945-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -911,6 +1013,9 @@
     <t>Came along with my husband for a day (he was on a business trip in this area). Great staff, very accomodating. Great breakfast with hot/cold choices. Our room (2 queen beds) was huge, with a nice sitting area with couches and minibar. The room had mini fridge/microwave. Excellent size bathroom. Nice fluffy new towels. Overall - great experience. Nothing to complain about. Had a great night sleep.More</t>
   </si>
   <si>
+    <t>RenoJohnC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r329750751-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -929,6 +1034,9 @@
     <t>Property is convenienent to freeway, and Costco gas...bed was TOO firm for us, otherwise, staff and property was clean and priced as a good value. Breakfast is very complete, with hot and cold options...though eight years old, the property looked, and felt newer.More</t>
   </si>
   <si>
+    <t>LandofHopesandDreams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r328278162-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -950,6 +1058,9 @@
     <t>I was so impressed with the staff here.  They all were so  helpful and friendly.  I had a number of issues with my room - they were quick to address them and even had a "sorry" note from one of the maintenance guys on my desk for the problems.  That was a class act.The room is a standard Springhill Suites.  Good desk to work on.  Bed was comfortable.  HVAC was a little weird.  You can't just have the fan "on" as it has to run with either the heat or A/C.  Breakfast was typical.You are centrally located to restaurants and plenty of supermarkets if you want to eat in your room.  Rooms have both refrigerators and microwaves with utensils provided.  The workout room was good with a few cardio options.  Wifi was strong and worked great.Definitely a place to stay again.More</t>
   </si>
   <si>
+    <t>Leslie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r321947740-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -974,6 +1085,9 @@
     <t>I often stay here when traveling to the Lancaster/Palmdale area for work.  I typically arrive pretty late coming from the east coast so while it may be 9pm on the west coast, it's midnight to me! Melina is always there to greet this weary traveler with a warm smile and a quick check in! Rooms are clean and spacious and wifi signal is strong! More</t>
   </si>
   <si>
+    <t>James W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r321138658-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -995,6 +1109,9 @@
     <t>Good night sleep and the amenities were nice. Rooms were clean and convenient for Edwards AFB. Didn't stick around for breakfast but it looked decent. Bananas were all green though. Shower was fine. Lots of parking and conveniently located for dining and fuel. More</t>
   </si>
   <si>
+    <t>CJ S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r321047586-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1013,6 +1130,9 @@
     <t>Whenever I'm working in Lancaster, I stay at the Springhill suites The staff is always courteous and the rooms are always clean. I'm never sure if I'm going to have to stay until the end of the day. So when I call last minute it is refreshing to deal with a polite and helpful rep. Milina remembered me from my last stay and had me checked in in no time at all. (She rocks!) The A/C is on when I walk in the room during the summer and the showers are hot with good pressure during the winters. Great place to stay when in the Lancaster/Palmdale area. More</t>
   </si>
   <si>
+    <t>George B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r320232354-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1031,6 +1151,9 @@
     <t>Very comfortable room. Great people. I travel to this area monthly and I wouldn't consider staying anywhere else. Malina and all of the front desk staff are extremely friendly and professional - quick to answer any questions or recommend a great place to eat. They greet me by name when I come in - like family.More</t>
   </si>
   <si>
+    <t>MDDCFlyer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r313128054-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1058,6 +1181,9 @@
     <t>The hotel is exactly what you can expect from the chain. Decent all suites (albeit small) hotel with free breakfast and WiFi. If ever in the area again will gladly stay again.The hotel is conveniently located close to the major highways in town as well as to shopping and dining areas. There is free parking on the premises. You cannot go far in Lancaster without a car, although if push comes to shove there are some eateries and shopping establishment in (almost) walking distance. The only down side is that the hotel back faces a Harley Davidson shop and the bikers seems to congregate there early in the morning.Service was good, although as a lower rank Marriott it was really limited to the front desk. Although every time I’ve approached the desk it seems to be deserted, someone always appeared to take care of the customers. Breakfast was a standard affairs with hot and cold items, juices (from a box), fruits and yogurts. Nothing special there, though for what it was the quality was good.The room was decent with two compartment (the “living room” and the “bed room”) although all in all on the small side for an all-suites hotel. It felt less roomy from other in the same category. But the bed was good, WiFi was strong and fast and the shower although a little strangely shaped was good.More</t>
   </si>
   <si>
+    <t>nmjensen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r304756026-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1085,6 +1211,9 @@
     <t>Very nice welcome from desk clerk after a long drive started our one night stay. Really enjoyed this Hotel: clean, comfortable and quiet. Nice clean room and excellent coffee (left too early for breakfast)  will stay here againMore</t>
   </si>
   <si>
+    <t>SIMON f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r277604199-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1112,6 +1241,9 @@
     <t>I walked into the lobby and saw this lady with such this beautiful smile and when i told her how tired i was, she understood and immediately, gave me a room without any problem! I was very happy when she went out of her way to help me out ! when i checked out I saw her name tag it was Judy  She is a five star lady!!More</t>
   </si>
   <si>
+    <t>kc7579</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r275719832-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1133,6 +1265,9 @@
     <t>We came to visit a friend in Lancaster. We were not sure where to stay and this hotel was recommended. The rooms here very clean and looks great! The staff was very friendly and welcoming. The next time we visit we will be staying here.More</t>
   </si>
   <si>
+    <t>Bradford R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r273591877-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1151,6 +1286,9 @@
     <t>I don't usually write more than one review for a location, but this could not be left unsaid. I wrote in my other review that I stay here quite a bit for work travel. It took a few months for me to notice, but my back was getting worse. I asked the front desk attendent if I could bring my own foam topper and sheets and just leave them there in storage. She checked with Judy the manager and the head of housekeeping and confirmed that this would be ok. I brought my things the next week and made the bed myself and then left them in the room as discussed. When I returned the following week however, I was greeted with an acknowledgement that my room was ready WITH MY THINGS ALREADY ON THE BED. Being away from home can be hard on frequent travelors, but the staff at this hotel have made me feel like I have a home away from home, and I can't express enough appreciation for that and this extremely kind and welcoming gesture.More</t>
   </si>
   <si>
+    <t>Thomas H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r271522365-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1175,6 +1313,9 @@
     <t>When traveling in the Lancaster/Palmdale, CA area, which is often, I always stay at the Springhill Suites by Marriott.  It's clean, roomy, comfortable, and has a great staff.  Vickie, one of the desk clerks will definitely take care of you to ensure your stay is what you expect it to be.More</t>
   </si>
   <si>
+    <t>Jazzluvr4life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r271106429-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1190,6 +1331,9 @@
     <t>There was a jazz concert nearby so I decided to stay at a Marriott. So I chose SpringHill. This place is nice, quiet, and clean. Ilona checked me in. She was very nice, professional, and she gave me the room I requested because I had a long week and wanted a good nights rest. If I need to return the area, I will definitely stay here again. More</t>
   </si>
   <si>
+    <t>Rishikesh A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r269097730-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1211,6 +1355,9 @@
     <t>This is one of the best hotels around to stay in Lancaster area. Very comfortable, great staff and extremely clean. Location is excellent, nearby restaurants are good. Very close to highway. Very quite roomsMore</t>
   </si>
   <si>
+    <t>Vincent V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r265929233-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1235,6 +1382,9 @@
     <t>Although I stayed for only one night, I found this hotel to be of high quality and service.  People were very friendly and hospitable, especially Melenia at the front desk and the personnel attendants at the breakfast area.  For my future travel in this area I definately plan to return to this facility.More</t>
   </si>
   <si>
+    <t>Heather M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r263686618-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1253,6 +1403,9 @@
     <t>We arrived around 10:00pm in the evening.  Our check in was quick.  When we got to our room, it was a little warm, so we turned on the a/c.  The room cooled very quickly.The hotel is right by the freeway and our room was very quiet.  The room and bathroom at the SpringHill Suites was very clean!  The room décor was typical SpringHill.Breakfast was also typical for a SpringHill Suites, it included:  coffee, juices, cereal, oatmeal, English muffins, bagels, etc.  There was something for everyone.  In the morning, there were complementary copies of USA Today and the Wall Street Journal at the front desk for guests.I would definitely stay at this hotel again.More</t>
   </si>
   <si>
+    <t>Adam J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r263229972-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1271,6 +1424,9 @@
     <t>Clean room, friendly staff, and the free breakfast was a plus.  I would recommend this hotel to anyone staying in Lancaster.  Dean the night supervisor was very helpful. There are some very good restaurants close by that also make this hotel very convenient to stay at.More</t>
   </si>
   <si>
+    <t>g r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r262059622-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1298,6 +1454,9 @@
     <t>I enjoyed the SpringHill Suites Lancaster/Palmdale.  The included morning breakfast was really well done!  The outdoor pool/spa was clean and quiet.  Dean helped ensure that everyting was great--taking the time to answer all my questions.More</t>
   </si>
   <si>
+    <t>OldSeasonedTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r259816437-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1322,6 +1481,9 @@
     <t>The room was too hot. Left the air conditioning on for four hours and it did not cool to less than 74 deg. (It wasn't that hot outside either). And, all of the linen smelt like it was overcooked in the dry cleaners. Did not sleep at all because of it. Oh yeah, and all those pictures of fresh fruit at breakfast...forget about that...all I saw was one banana. AND, to top it off, I was offered a bribe of points by the front desk to write a good review on trip advisor!!!! No thanks!More</t>
   </si>
   <si>
+    <t>RiverCoupleAZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r259589709-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1340,6 +1502,9 @@
     <t>The hotel staff was friendly and extremely accommodating. I try and always stay with Marriott Hotels but I'm not always fortunate enough to do so. This time I was and as usual Marriott doesn't disappoint. The beds are amazing, so much so that I want to buy one of their mattresses and the room was cool and quiet. Couldn't ask for more. The ONLY disappointment was the swimming pool.... Lame! Small and in the shade so it felt like ice.... But I didn't really need to swim in March. Overall VERY pleased! More</t>
   </si>
   <si>
+    <t>Ross R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r259111727-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1356,6 +1521,9 @@
   </si>
   <si>
     <t>The desk agent greeted me and helped my with my room choice. Even though I had only made the reservation online 45 minutes earlier, he had my information and preferences ready when I arrived. The rooms are new and nice. The bed was awesome; I slept really well after a long day of driving. The hotel is adjacent to the highway (easy access) and a large selection of restaurants within a mile.More</t>
+  </si>
+  <si>
+    <t>Mrs_Flynn54</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r258968483-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
@@ -1387,6 +1555,9 @@
 I don't know the name of the General Manager, but one day I got a call from Vicki, that he had assisted in making some changes for us, that really supported me, during one of my more vulnerable weeks of...We stayed for 6 weeks, Mon-Fri, while receiving medical care close by. From the first inquiry call, when I spoke to Vicki about their handicapped accessibility and toilet height (which she found out and called me back with) I was impressed. Other front desk staff Judy and Melina were helpful during our stay and never ceased to amaze me, at how many guest names they knew and theirconsistantly going the extra mile. Angelica, (I believe she is the Housekeeping Supervisor) and her staff were very accomadating and supportive during my changing medical needs. David and Zac in Maintenance were very available , assisting us with room issues (our AC worked great after David showed us how to use it) . Thank you David for that first day when you washed our windows, because I would be spending alot of time in the room looking out and the recent rain had really dirtied the window. The breakfast buffet was fresh and well cared for by Cameo and Rosa A. The fresh fruit was clean, but due to my medical condition I requested a second wash, which they always did with a smile. Thank you for your personal care of your guests.I don't know the name of the General Manager, but one day I got a call from Vicki, that he had assisted in making some changes for us, that really supported me, during one of my more vulnerable weeks of medical treatment. Thank you.On the lighter side: my husband really enjoyed the pool and jaquzzi; and the fact it was next to the Harley dealership. Location wise , it is close to many onramps, restaurants, drugstores, AlbertsonsWalmart, 99cents store. If you are in Lancaster on a Tuesday night the Cinemark Theater on I street is $5.75 all day and only a couple short miles awayMore</t>
   </si>
   <si>
+    <t>KimK729</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r258765814-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1405,6 +1576,9 @@
     <t>The room was nice, comfy beds, clean bathroom. We had a fridge and microwave, but the AC hardly worked. We had to Crack open the window and listen to the freeway  traffic just to get some cool air in the room. We had the AC on 60 but hardly put any air out. The staff was really nice and the free breakfast was great!I gave it 4 stars because of the AC but if that worked it would have 5 stars.More</t>
   </si>
   <si>
+    <t>John P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r256509075-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1429,6 +1603,9 @@
     <t>When my work colleague and I travel to the Los Angeles area we always choose the SpringHill Suites in Lancaster. We always feel at home when we stay here. There are so many good things to say about this Hotel but the one thing that stands out the most...... are the people, they are very friendly here.Upon our arrival Vicki always gives a warm greeting at the front desk and takes the time to ask us how are day was. That's not to say we dont enjoy the other perks here, like the hot breakfast, the gym, and nice clean rooms with comfortable beds.All in all if you want a perfect balance of comfort, style, good hospitality at a great price the SpringHill Suites is always a perfect choice.JohnMore</t>
   </si>
   <si>
+    <t>WorldtravelerNZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r255895901-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1453,6 +1630,9 @@
     <t>My wife and I stayed Feb 20 &amp; 21 2015.  King suite #318.  The room and hotel were clean, comfortable and  spacious - great value for the price.  Breakfast was good, and served at the right temperature.  Pool looked nice but the outside temps were low so I didn't try it!But it was Vicki and Jason at the front desk who made it special.  Vicki gave me a list of things to do and restaurants to try, and Jason  shared his favorite steakhouse with us.  We went there for my birthday dinner and it was excellent.  On Saturday morning, Vicki not only remembered where I said we wanted to go, but had printed out directions for us.By the way, the picture is of my wife.  She's much better looking than I am!Strongly recommended!More</t>
   </si>
   <si>
+    <t>Wahzah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r254678012-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1477,6 +1657,9 @@
     <t>President's Day Weekend; California State-Wide Soccer Tournaments; School Holidays; Valentine's Day; etc. etc. etc.  It all added up to a nightmare trying to find a room anywhere in the LA basin.  I called the Springhill Suites in Lancaster directly and spoke with Vicky on the phone.  She instantly became my BFF.  We had to basically drive an extra 100 miles to stay here, but it was SO worth it.  After driving for two hours, Vicky greeted us at the front desk, found us a quiet room at the end of the corridor on the third floor (the hotel was full of young soccer players), and suggested a company to deliver pizza... In other words, she did everything except tuck us in for the night.  WONDERFUL night's sleep; the best ever.  Marriott properties seldom disappoint and this one is no exception.  Spotlessly clean, perfectly maintained, GREAT stafff.  Oh, and LIGHTNING-FAST--I mean AMAZINGLY, UNBELIEVABLY FAST wi-fi.  If we're ever passing through Lancaster/Palmdale in the future, this will definitely be our first choice to stay.More</t>
   </si>
   <si>
+    <t>Dick H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r254105542-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1495,6 +1678,9 @@
     <t>With the constant traveling I do, it is always a welcome sight to have a hotel that makes you feel at home.  From the time you check in until the time you check out, the staff at this Springhill goes out of their way to make you part of their family!DickMore</t>
   </si>
   <si>
+    <t>Carmen Or John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r254056758-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1522,6 +1708,9 @@
     <t>I stay with my wife Carmen quite frequently here.   We are frequently greeted by Vicky or Malani who always note my preferences listed on Marriot Rewards.  Vicky is always engaging and has referred us to several really great restaurants.  The rooms are always perfect and absolutely clean.  We always enjoy the full hot breakfast, it provides a great start.  I leave for business and my wife likes to sleep in.  We love the fact that  when we put out the do not disturb sign it is observed.  This place is the perfect stay away from home.More</t>
   </si>
   <si>
+    <t>wjotts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r254052886-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1537,6 +1726,9 @@
     <t>I am a loyal Marriott customer that travels over 100 days a year.  I arrived very late after a long flight across the country and Vicki was very helpful and friendly at check in.  I have been here a week and she has had a friendly smile on her face everyday that I come in from work.  I will certainly stay here the next time I'm in the area.More</t>
   </si>
   <si>
+    <t>Laurie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r253618886-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1576,6 +1768,9 @@
     <t>I travel a lot for work and have stayed in many hotels, including several Marriot's. I am in a hotel at least two nights per week, but usually three or four. I have gotten used to the level of service provided by Marriot staff and have been pleasantly surprised by the personal touch the staff at this hotel provide. I am greeted by name by the evening and morning staff and am always treated like family. We laugh and joke, they remember our last discussion, follow up and are always flexible and willing to help when my schedule changes. There was a time when I left some shoes behind by accident. When I called, Judy who was at the front desk at the time, checked the lost and found and confirmed for me that I had indeed left them behind. She then took it upon herself to look up my next reservation and have my shoes polished and left in my room for the following week. Now that's what I call customer service. The rooms are clean and spacious. The beds are comfortable and I like the little seating area with the small kitchen. Being away from home all week, every week can get hard, but this hotel feels like home away from home and I really appreciate it.More</t>
   </si>
   <si>
+    <t>Robert P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r253466008-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
   </si>
   <si>
@@ -1592,6 +1787,9 @@
   </si>
   <si>
     <t>My stay at the Springhill Suites in Lancaster was great as usual.  The rooms are always clean, I always feel comfortable, and the people that work here always make me feel like I am at home.  Thanks again to Vikki whom I have only talked to on the phone and finally got to meet this trip.  It's people like her that make people feel like they are coming to their home away from home.More</t>
+  </si>
+  <si>
+    <t>Jamie T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32607-d678407-r240129530-SpringHill_Suites_Lancaster_Palmdale-Lancaster_California.html</t>
@@ -2123,43 +2321,47 @@
       <c r="A2" t="n">
         <v>56858</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2173,50 +2375,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>56858</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2236,50 +2442,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>56858</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2293,50 +2503,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>56858</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2352,56 +2566,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>56858</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2417,56 +2635,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>56858</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2482,56 +2704,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>56858</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2549,56 +2775,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>56858</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2616,56 +2846,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>56858</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2683,56 +2917,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>56858</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2744,47 +2982,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="X11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>56858</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
@@ -2801,56 +3043,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="X12" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>56858</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2868,56 +3114,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="X13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>56858</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2935,56 +3185,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56858</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2996,56 +3250,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>56858</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>150</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>137</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3063,56 +3321,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>56858</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3128,56 +3390,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="X17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>56858</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O18" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3193,56 +3459,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="X18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>56858</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3258,56 +3528,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="X19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="Y19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>56858</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>192</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="O20" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3325,56 +3599,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="X20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>56858</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3390,56 +3668,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>56858</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3451,56 +3733,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>56858</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3516,56 +3802,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>56858</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3577,56 +3867,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="X24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>56858</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3644,56 +3938,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>56858</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3709,56 +4007,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>56858</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>257</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3770,56 +4072,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X27" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>56858</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3837,56 +4143,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X28" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>56858</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="O29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3904,56 +4214,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X29" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Y29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>56858</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O30" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3971,56 +4285,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="X30" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="Y30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>56858</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="O31" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4036,56 +4354,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="X31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="Y31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>56858</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>295</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="J32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4101,56 +4423,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>56858</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>305</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>301</v>
+      </c>
+      <c r="O33" t="s">
         <v>277</v>
-      </c>
-      <c r="L33" t="s">
-        <v>278</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>270</v>
-      </c>
-      <c r="O33" t="s">
-        <v>249</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4168,56 +4494,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>56858</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>312</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="O34" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4235,56 +4565,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="X34" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="Y34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>56858</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>319</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>287</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4302,47 +4636,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="X35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="Y35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>56858</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4359,56 +4697,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="X36" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>56858</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="O37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4426,47 +4768,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="X37" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="Y37" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>56858</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>344</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -4483,56 +4829,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="X38" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Y38" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>56858</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>353</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="J39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="K39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4544,56 +4894,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="X39" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>56858</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4605,56 +4959,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="X40" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>56858</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>368</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="J41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="K41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="O41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4672,56 +5030,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="X41" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>56858</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="O42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4739,56 +5101,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>56858</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>385</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="J43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="K43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4800,56 +5166,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="X43" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="Y43" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>56858</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>395</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="J44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
       <c r="K44" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4867,56 +5237,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="X44" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="Y44" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>56858</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>405</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="J45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="K45" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="L45" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="O45" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4928,56 +5302,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="X45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="Y45" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>56858</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>413</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="K46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="O46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4993,56 +5371,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="X46" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="Y46" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>56858</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5060,56 +5442,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="X47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>56858</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>429</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="K48" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="L48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5121,56 +5507,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="X48" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="Y48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>56858</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>435</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="J49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="L49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5188,56 +5578,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="X49" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="Y49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>56858</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>443</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5255,56 +5649,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="X50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="Y50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>56858</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>452</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="J51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="K51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="L51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O51" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5320,56 +5718,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="X51" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>56858</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>459</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5387,56 +5789,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="X52" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="Y52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>56858</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>466</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="K53" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5454,56 +5860,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="X53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="Y53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>56858</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>476</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="J54" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="O54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -5519,47 +5929,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="X54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="Y54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>56858</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>485</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="J55" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="K55" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="L55" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
@@ -5576,56 +5990,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="X55" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="Y55" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>56858</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>492</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="J56" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="K56" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="L56" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="O56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5641,56 +6059,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="X56" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="Y56" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56858</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>499</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="J57" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="K57" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="L57" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5706,56 +6128,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="X57" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="Y57" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>56858</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>507</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="J58" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="K58" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="L58" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="O58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -5767,56 +6193,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="X58" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="Y58" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>56858</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>514</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="J59" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="K59" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
       <c r="L59" t="s">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -5832,56 +6262,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="X59" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="Y59" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>56858</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>523</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="J60" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="K60" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="L60" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O60" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5899,56 +6333,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="X60" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="Y60" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>56858</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>532</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="J61" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="K61" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="L61" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O61" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5964,56 +6402,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="X61" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="Y61" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>56858</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>541</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="J62" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="K62" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="L62" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6031,56 +6473,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>470</v>
+        <v>529</v>
       </c>
       <c r="X62" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="Y62" t="s">
-        <v>486</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>56858</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>548</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="J63" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="K63" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="L63" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="O63" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6096,56 +6542,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="X63" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="Y63" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>56858</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>558</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="J64" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="K64" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="L64" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6161,56 +6611,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="X64" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="Y64" t="s">
-        <v>500</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>56858</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>564</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="J65" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="K65" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="L65" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="O65" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6222,56 +6676,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="X65" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="Y65" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>56858</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>413</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="J66" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="K66" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="L66" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6287,56 +6745,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="X66" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="Y66" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>56858</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>578</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="J67" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="K67" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="L67" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -6354,56 +6816,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="X67" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="Y67" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>56858</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>585</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>520</v>
+        <v>586</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="J68" t="s">
-        <v>522</v>
+        <v>588</v>
       </c>
       <c r="K68" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="L68" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="O68" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6415,13 +6881,13 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="X68" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="Y68" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
